--- a/data/christoph/Liste Standart_OGND.xlsx
+++ b/data/christoph/Liste Standart_OGND.xlsx
@@ -19,7 +19,1081 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="390">
+  <si>
+    <t>Giulio II. &lt;Julius II., Papst&gt; &lt;Giuliano della Rovere&gt; &lt;Julio II., Papa&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4097998-2</t>
+  </si>
+  <si>
+    <t>Santa Maria della Consolazione (Todi)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4388898-7 </t>
+  </si>
+  <si>
+    <t>Entität</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4629260-3</t>
+  </si>
+  <si>
+    <t>Idee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4026475-0 </t>
+  </si>
+  <si>
+    <t>Konzeption &lt;Konzept&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4204973-8 </t>
+  </si>
+  <si>
+    <t>Medialität &lt;Medium&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4604953-8 </t>
+  </si>
+  <si>
+    <t>Gebäude &lt;Bauwerk&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Person</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4134819-9 </t>
+  </si>
+  <si>
+    <t>Kommunikation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4031883-7 </t>
+  </si>
+  <si>
+    <t>Bewertung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4006340-9  </t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4072905-9</t>
+  </si>
+  <si>
+    <t>Kopie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4032423-0 </t>
+  </si>
+  <si>
+    <t>Sangallo, Antonio da &lt;il Giovane&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4076822-3  </t>
+  </si>
+  <si>
+    <t>Peterskirche (Rom) &lt;Petersdom&gt; &lt;San Pietro in Vaticano&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palazzo Pandolfini (Florenz)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4223239-9 </t>
+  </si>
+  <si>
+    <t>Linearperspektive &lt;Perspektive&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zentralperspektive &lt;Perspektive&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4045301-7 </t>
+  </si>
+  <si>
+    <t>Verzeichnis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4188171-0 </t>
+  </si>
+  <si>
+    <t>Vorlesung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Akademie der Künste (Berlin)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benedetto, da Maiano</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raffaello, Sanzio &lt;Raffaelo&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dom Florenz (Florenz) &lt;Santa Maria del Fiore (Florenz)&gt; &lt;Duomo Florenz&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Innenraum &lt;Motiv&gt;</t>
+  </si>
+  <si>
+    <t>4645429-9</t>
+  </si>
+  <si>
+    <t>Außenraum &lt;Öffentlicher Raum&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4172385-5 </t>
+  </si>
+  <si>
+    <t>Zusammenfassung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4224911-9 </t>
+  </si>
+  <si>
+    <t>Poppi (Arezzo)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4199590-9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugenotten </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4026112-8     </t>
+  </si>
+  <si>
+    <t>Kirchbau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4073436-5</t>
+  </si>
+  <si>
+    <t>Sakralbau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4178936-2 </t>
+  </si>
+  <si>
+    <t>Charenton (Val-de-Marne)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7532270-5</t>
+  </si>
+  <si>
+    <t>Oppennord, Gilles-Marie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Busti , Agostino (il Bambaia &lt;Bambaja&gt;)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chantilly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4085214-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1006837-5  </t>
+  </si>
+  <si>
+    <t>Musée du Louvre (Paris)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thesaurus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4185172-9 </t>
+  </si>
+  <si>
+    <t>Todi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4119637-5 </t>
+  </si>
+  <si>
+    <t>Giocondo, Frau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Peruzzi, Baldassare </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bindung (Gebundener Zustand)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4273032-6     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4044522-7 </t>
+  </si>
+  <si>
+    <t>4131382-3</t>
+  </si>
+  <si>
+    <t>4195104-9</t>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4356677-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4127900-1     </t>
+  </si>
+  <si>
+    <t>Illustration (Abbildung)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4123412-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4050471-2 </t>
+  </si>
+  <si>
+    <t>Vatikanstadt &lt;Vatikan&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4062404-3  </t>
+  </si>
+  <si>
+    <t>4060485-8</t>
+  </si>
+  <si>
+    <t>Toskana &lt;Toscana&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4018145-5  </t>
+  </si>
+  <si>
+    <t>Frankreich &lt;France&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carpi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4085157-6</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4103588-4  </t>
+  </si>
+  <si>
+    <t>Baden-Baden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4004169-4 </t>
+  </si>
+  <si>
+    <t>Ostia Antica (Region)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4459238-3 </t>
+  </si>
+  <si>
+    <t>TYPUS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INHALT, DARSTELLUNG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARCHITEKTUR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAUSTIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORTE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIGENSCHAFT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TECHNIK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENZEBENEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEMEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARBEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORGANISATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAUWERK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4184608-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4671374-8 </t>
+  </si>
+  <si>
+    <t>Seite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doppel (Seite)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Typografie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4136341-3</t>
+  </si>
+  <si>
+    <t>Strich &lt;Typografie&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4596644-8</t>
+  </si>
+  <si>
+    <t>Werbeanzeige &lt;Anzeige&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4002377-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datierung </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4113278-6  </t>
+  </si>
+  <si>
+    <t>Galleria degli Uffizi &lt;Uffizien&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2042762-1</t>
+  </si>
+  <si>
+    <t>Kastell &lt;Besfestigungsanlage&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4136071-0 </t>
+  </si>
+  <si>
+    <t>Bildnis &lt;Porträt&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4006627-7 </t>
+  </si>
+  <si>
+    <t>Studie (Vorstudie)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kunststil (Stilphase)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ergänzung</t>
+  </si>
+  <si>
+    <t>4405205-4</t>
+  </si>
+  <si>
+    <t>Korrektur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4205358-4 </t>
+  </si>
+  <si>
+    <t>Initiale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4027011-7</t>
+  </si>
+  <si>
+    <t>Probedruck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4367555-4</t>
+  </si>
+  <si>
+    <t>Verschleiß &lt;Abnützung&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4063153-9 </t>
+  </si>
+  <si>
+    <t>Tabelle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4184303-4 </t>
+  </si>
+  <si>
+    <t>Reproduktion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4115749-7     </t>
+  </si>
+  <si>
+    <t>Beschriftung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4298755-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4297336-3 </t>
+  </si>
+  <si>
+    <t>Diagramm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4012044-2</t>
+  </si>
+  <si>
+    <t>Zeitschriftenaufsatz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4125424-7</t>
+  </si>
+  <si>
+    <t>Lichtdruck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bleistift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gouache</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aquarell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tinte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lavierung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4552376-9</t>
+  </si>
+  <si>
+    <t>Zeichnung &lt;Motiv&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4524906-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4273606-7   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4045895-7  </t>
+  </si>
+  <si>
+    <t>4121035-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4071972-8 </t>
+  </si>
+  <si>
+    <t>4002511-1</t>
+  </si>
+  <si>
+    <t>Schreibfeder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4348438-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4185528-0 </t>
+  </si>
+  <si>
+    <t>Schreibstift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4005413-5</t>
+  </si>
+  <si>
+    <t>Belichtung (Doppel)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broschüre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4146704-8</t>
+  </si>
+  <si>
+    <t>Notiz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4206777-7</t>
+  </si>
+  <si>
+    <t>Grundriss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4022346-2</t>
+  </si>
+  <si>
+    <t>Destailleur, Hippolyte A.</t>
+  </si>
+  <si>
+    <t>Androuet du Cerceau, Jacques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1868101X </t>
+  </si>
+  <si>
+    <t>Wolff Metternich, Franz</t>
+  </si>
+  <si>
+    <t>Alberti, Leon Battista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11850147X </t>
+  </si>
+  <si>
+    <t>Bramante, Donato</t>
+  </si>
+  <si>
+    <t>11851427X</t>
+  </si>
+  <si>
+    <t>Sangallo, Giuliano da</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serlio, Sebastiano</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caradosso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gelb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4438206-6</t>
+  </si>
+  <si>
+    <t>Bleistift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schwarz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4180332-2  </t>
+  </si>
+  <si>
+    <t>Schreibstift &lt;Stift&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4348436-0   </t>
+  </si>
+  <si>
+    <t>Weiß</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4189483-2</t>
+  </si>
+  <si>
+    <t>Rot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4178482-0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4137963-9 </t>
+  </si>
+  <si>
+    <t>Heliogravüre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4024298-5</t>
+  </si>
+  <si>
+    <t>Lichtdruck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4273606-7  </t>
+  </si>
+  <si>
+    <t>Stempel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4183099-4  </t>
+  </si>
+  <si>
+    <t>Leonardo, da Vinci</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Befestigung &lt;Befestigungsanlage&gt; &lt;Festungsbau&gt;&lt;Wehrbau&gt; &lt;Wehranlage&gt; &lt;Verteidigungsanlage&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4069225-5 </t>
+  </si>
+  <si>
+    <t>Titelblatt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4185576-0  </t>
+  </si>
+  <si>
+    <t>Villa Madama (Rom)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4366804-5</t>
+  </si>
+  <si>
+    <t>Rekonstruktion (dreidimensional)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4150634-0</t>
+  </si>
+  <si>
+    <t>Rekonstruktion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4136102-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4021732-2 </t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OGND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skizzenbuch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4055251-2</t>
+  </si>
+  <si>
+    <t>Turm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4203577-6</t>
+  </si>
+  <si>
+    <t>Postkarte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4046902-5</t>
+  </si>
+  <si>
+    <t>Umgang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4294752-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeichnung </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vierung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4121876-0</t>
+  </si>
+  <si>
+    <t>Blatt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007051-7</t>
+  </si>
+  <si>
+    <t>Gebäude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4156127-2 </t>
+  </si>
+  <si>
+    <t>Skizze</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4181668-7 </t>
+  </si>
+  <si>
+    <t>Kuppel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4166190-4</t>
+  </si>
+  <si>
+    <t>Gerüst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4206804-6 </t>
+  </si>
+  <si>
+    <t>Fotografie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4045895-7</t>
+  </si>
+  <si>
+    <t>Dom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4070532-8 </t>
+  </si>
+  <si>
+    <t>Negativ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4347758-6</t>
+  </si>
+  <si>
+    <t>Chorraum &lt;Chor&gt; &lt;Presbyterium&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4069980-8</t>
+  </si>
+  <si>
+    <t>Heft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4704591-7 </t>
+  </si>
+  <si>
+    <t>Fassade &lt;Aussenwand&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4016507-3 </t>
+  </si>
+  <si>
+    <t>Zeitschrift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4067488-5 </t>
+  </si>
+  <si>
+    <t>Außenwand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4112641-5</t>
+  </si>
+  <si>
+    <t>Zeitungsausschnitt</t>
+  </si>
+  <si>
+    <t>4324081-1</t>
+  </si>
+  <si>
+    <t>Innenwand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4133850-9  </t>
+  </si>
+  <si>
+    <t>Bildliche Darstellung &lt;Abbildung&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4145419-4</t>
+  </si>
+  <si>
+    <t>Grabmal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reggio (Calabria)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mailand &lt;Milano&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4037100-1 </t>
+  </si>
+  <si>
+    <t>4005728-8</t>
+  </si>
+  <si>
+    <t>Lehnin &lt;Kloser Lehnin&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>115338-9</t>
+  </si>
+  <si>
+    <t>Florenz &lt;Firenze&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4017581-9  </t>
+  </si>
+  <si>
+    <t>Rom &lt;Roma&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4279136-4</t>
+  </si>
+  <si>
+    <t>Schloss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4052753-0</t>
+  </si>
+  <si>
+    <t>Mex (Waad)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4078982-2 </t>
+  </si>
+  <si>
+    <t>Lausanne</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4034750-3 </t>
+  </si>
+  <si>
+    <t>Profil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4533611-8     </t>
+  </si>
+  <si>
+    <t>Geymüller, Heinrich von</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Familie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4016397-0 </t>
+  </si>
+  <si>
+    <t>Sitzen &lt;Motiv&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4679406-2 </t>
+  </si>
+  <si>
+    <t>Figur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4229620-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusammensetzung </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4191159-3</t>
+  </si>
+  <si>
+    <t>Sammlung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4128844-0 </t>
+  </si>
+  <si>
+    <t>Periode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4197595-9</t>
+  </si>
+  <si>
+    <t>Burckhardt, Jacob</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11851752X </t>
+  </si>
+  <si>
+    <t>Nachricht</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4127996-7 </t>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4137867-2</t>
+  </si>
+  <si>
+    <t>Abschrift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4279136-4 </t>
+  </si>
+  <si>
+    <t>Liste (Objekte)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4167829-1</t>
+  </si>
   <si>
     <t>Plakat</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -279,18 +1353,10 @@
     <t>4537490-9</t>
   </si>
   <si>
-    <t>Innenansicht</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Milimeterpapier</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Aussenansicht</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Seitenansicht</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -349,1071 +1415,6 @@
   </si>
   <si>
     <t>4152458-5</t>
-  </si>
-  <si>
-    <t>Rekonstruktion (dreidimensional)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4150634-0</t>
-  </si>
-  <si>
-    <t>Rekonstruktion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4136102-7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4021732-2 </t>
-  </si>
-  <si>
-    <t>Bezeichnung</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OGND</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skizzenbuch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4055251-2</t>
-  </si>
-  <si>
-    <t>Turm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4203577-6</t>
-  </si>
-  <si>
-    <t>Postkarte</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4046902-5</t>
-  </si>
-  <si>
-    <t>Umgang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4294752-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zeichnung </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vierung</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4121876-0</t>
-  </si>
-  <si>
-    <t>Blatt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4007051-7</t>
-  </si>
-  <si>
-    <t>Gebäude</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4156127-2 </t>
-  </si>
-  <si>
-    <t>Skizze</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4181668-7 </t>
-  </si>
-  <si>
-    <t>Kuppel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4166190-4</t>
-  </si>
-  <si>
-    <t>Gerüst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4206804-6 </t>
-  </si>
-  <si>
-    <t>Fotografie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4045895-7</t>
-  </si>
-  <si>
-    <t>Dom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4070532-8 </t>
-  </si>
-  <si>
-    <t>Negativ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4347758-6</t>
-  </si>
-  <si>
-    <t>Chorraum &lt;Chor&gt; &lt;Presbyterium&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4069980-8</t>
-  </si>
-  <si>
-    <t>Heft</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4704591-7 </t>
-  </si>
-  <si>
-    <t>Fassade &lt;Aussenwand&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4016507-3 </t>
-  </si>
-  <si>
-    <t>Zeitschrift</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4067488-5 </t>
-  </si>
-  <si>
-    <t>Außenwand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4112641-5</t>
-  </si>
-  <si>
-    <t>Zeitungsausschnitt</t>
-  </si>
-  <si>
-    <t>4324081-1</t>
-  </si>
-  <si>
-    <t>Innenwand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4133850-9  </t>
-  </si>
-  <si>
-    <t>Bildliche Darstellung &lt;Abbildung&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4145419-4</t>
-  </si>
-  <si>
-    <t>Grabmal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reggio (Calabria)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mailand &lt;Milano&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4037100-1 </t>
-  </si>
-  <si>
-    <t>4005728-8</t>
-  </si>
-  <si>
-    <t>Lehnin &lt;Kloser Lehnin&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>115338-9</t>
-  </si>
-  <si>
-    <t>Florenz &lt;Firenze&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4017581-9  </t>
-  </si>
-  <si>
-    <t>Rom &lt;Roma&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4279136-4</t>
-  </si>
-  <si>
-    <t>Schloss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4052753-0</t>
-  </si>
-  <si>
-    <t>Mex (Waad)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4078982-2 </t>
-  </si>
-  <si>
-    <t>Lausanne</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4034750-3 </t>
-  </si>
-  <si>
-    <t>Profil</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4533611-8     </t>
-  </si>
-  <si>
-    <t>Geymüller, Heinrich von</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Familie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4016397-0 </t>
-  </si>
-  <si>
-    <t>Sitzen &lt;Motiv&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4679406-2 </t>
-  </si>
-  <si>
-    <t>Figur</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4229620-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zusammensetzung </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4191159-3</t>
-  </si>
-  <si>
-    <t>Sammlung</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4128844-0 </t>
-  </si>
-  <si>
-    <t>Periode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4197595-9</t>
-  </si>
-  <si>
-    <t>Burckhardt, Jacob</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">11851752X </t>
-  </si>
-  <si>
-    <t>Nachricht</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4127996-7 </t>
-  </si>
-  <si>
-    <t>Detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4137867-2</t>
-  </si>
-  <si>
-    <t>Abschrift</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4279136-4 </t>
-  </si>
-  <si>
-    <t>Liste (Objekte)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4167829-1</t>
-  </si>
-  <si>
-    <t>Bildnis &lt;Porträt&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4006627-7 </t>
-  </si>
-  <si>
-    <t>Studie (Vorstudie)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kunststil (Stilphase)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ergänzung</t>
-  </si>
-  <si>
-    <t>4405205-4</t>
-  </si>
-  <si>
-    <t>Korrektur</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4205358-4 </t>
-  </si>
-  <si>
-    <t>Initiale</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4027011-7</t>
-  </si>
-  <si>
-    <t>Probedruck</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4367555-4</t>
-  </si>
-  <si>
-    <t>Verschleiß &lt;Abnützung&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4063153-9 </t>
-  </si>
-  <si>
-    <t>Tabelle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4184303-4 </t>
-  </si>
-  <si>
-    <t>Reproduktion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4115749-7     </t>
-  </si>
-  <si>
-    <t>Beschriftung</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4298755-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4297336-3 </t>
-  </si>
-  <si>
-    <t>Diagramm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4012044-2</t>
-  </si>
-  <si>
-    <t>Zeitschriftenaufsatz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4125424-7</t>
-  </si>
-  <si>
-    <t>Lichtdruck</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bleistift</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gouache</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aquarell</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tinte</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lavierung</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4552376-9</t>
-  </si>
-  <si>
-    <t>Zeichnung &lt;Motiv&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4524906-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4273606-7   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4045895-7  </t>
-  </si>
-  <si>
-    <t>4121035-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4071972-8 </t>
-  </si>
-  <si>
-    <t>4002511-1</t>
-  </si>
-  <si>
-    <t>Schreibfeder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4348438-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4185528-0 </t>
-  </si>
-  <si>
-    <t>Schreibstift</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4005413-5</t>
-  </si>
-  <si>
-    <t>Belichtung (Doppel)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Broschüre</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4146704-8</t>
-  </si>
-  <si>
-    <t>Notiz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4206777-7</t>
-  </si>
-  <si>
-    <t>Grundriss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4022346-2</t>
-  </si>
-  <si>
-    <t>Destailleur, Hippolyte A.</t>
-  </si>
-  <si>
-    <t>Androuet du Cerceau, Jacques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1868101X </t>
-  </si>
-  <si>
-    <t>Wolff Metternich, Franz</t>
-  </si>
-  <si>
-    <t>Alberti, Leon Battista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11850147X </t>
-  </si>
-  <si>
-    <t>Bramante, Donato</t>
-  </si>
-  <si>
-    <t>11851427X</t>
-  </si>
-  <si>
-    <t>Sangallo, Giuliano da</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Serlio, Sebastiano</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Caradosso</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gelb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4438206-6</t>
-  </si>
-  <si>
-    <t>Bleistift</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schwarz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4180332-2  </t>
-  </si>
-  <si>
-    <t>Schreibstift &lt;Stift&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4348436-0   </t>
-  </si>
-  <si>
-    <t>Weiß</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4189483-2</t>
-  </si>
-  <si>
-    <t>Rot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blau</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4178482-0  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4137963-9 </t>
-  </si>
-  <si>
-    <t>Heliogravüre</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4024298-5</t>
-  </si>
-  <si>
-    <t>Lichtdruck</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4273606-7  </t>
-  </si>
-  <si>
-    <t>Stempel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4183099-4  </t>
-  </si>
-  <si>
-    <t>Leonardo, da Vinci</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Befestigung &lt;Befestigungsanlage&gt; &lt;Festungsbau&gt;&lt;Wehrbau&gt; &lt;Wehranlage&gt; &lt;Verteidigungsanlage&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4069225-5 </t>
-  </si>
-  <si>
-    <t>Titelblatt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4185576-0  </t>
-  </si>
-  <si>
-    <t>Villa Madama (Rom)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4366804-5</t>
-  </si>
-  <si>
-    <t>Zusammenfassung</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4224911-9 </t>
-  </si>
-  <si>
-    <t>Poppi (Arezzo)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4199590-9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hugenotten </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4026112-8     </t>
-  </si>
-  <si>
-    <t>Kirchbau</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4073436-5</t>
-  </si>
-  <si>
-    <t>Sakralbau</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4178936-2 </t>
-  </si>
-  <si>
-    <t>Charenton (Val-de-Marne)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7532270-5</t>
-  </si>
-  <si>
-    <t>Oppennord, Gilles-Marie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Busti , Agostino (il Bambaia &lt;Bambaja&gt;)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chantilly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4085214-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1006837-5  </t>
-  </si>
-  <si>
-    <t>Musée du Louvre (Paris)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thesaurus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4185172-9 </t>
-  </si>
-  <si>
-    <t>Todi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4119637-5 </t>
-  </si>
-  <si>
-    <t>Giocondo, Frau</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Peruzzi, Baldassare </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bindung (Gebundener Zustand)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4273032-6     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4044522-7 </t>
-  </si>
-  <si>
-    <t>4131382-3</t>
-  </si>
-  <si>
-    <t>4195104-9</t>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4356677-7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4127900-1     </t>
-  </si>
-  <si>
-    <t>Illustration (Abbildung)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4123412-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4050471-2 </t>
-  </si>
-  <si>
-    <t>Vatikanstadt &lt;Vatikan&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4062404-3  </t>
-  </si>
-  <si>
-    <t>4060485-8</t>
-  </si>
-  <si>
-    <t>Toskana &lt;Toscana&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4018145-5  </t>
-  </si>
-  <si>
-    <t>Frankreich &lt;France&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carpi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4085157-6</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4103588-4  </t>
-  </si>
-  <si>
-    <t>Baden-Baden</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4004169-4 </t>
-  </si>
-  <si>
-    <t>Ostia Antica (Region)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4459238-3 </t>
-  </si>
-  <si>
-    <t>TYPUS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INHALT, DARSTELLUNG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARCHITEKTUR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAUSTIL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORTE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATERIAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIGENSCHAFT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TECHNIK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFERENZEBENEN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>THEMEN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FARBEN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORGANISATION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAUWERK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PERSON</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teil</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4184608-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4671374-8 </t>
-  </si>
-  <si>
-    <t>Seite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doppel (Seite)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Typografie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4136341-3</t>
-  </si>
-  <si>
-    <t>Strich &lt;Typografie&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4596644-8</t>
-  </si>
-  <si>
-    <t>Werbeanzeige &lt;Anzeige&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4002377-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datierung </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4113278-6  </t>
-  </si>
-  <si>
-    <t>Galleria degli Uffizi &lt;Uffizien&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2042762-1</t>
-  </si>
-  <si>
-    <t>Kastell &lt;Besfestigungsanlage&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4136071-0 </t>
-  </si>
-  <si>
-    <t>Giulio II. &lt;Julius II., Papst&gt; &lt;Giuliano della Rovere&gt; &lt;Julio II., Papa&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dom Florenz (Florenz) &lt;Santa Maria del Fiore (Florenz)&gt; &lt;Duomo Florenz&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4097998-2</t>
-  </si>
-  <si>
-    <t>Santa Maria della Consolazione (Todi)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4388898-7 </t>
-  </si>
-  <si>
-    <t>Entität</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4629260-3</t>
-  </si>
-  <si>
-    <t>Idee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4026475-0 </t>
-  </si>
-  <si>
-    <t>Konzeption &lt;Konzept&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4204973-8 </t>
-  </si>
-  <si>
-    <t>Medialität &lt;Medium&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4604953-8 </t>
-  </si>
-  <si>
-    <t>Gebäude &lt;Bauwerk&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Person</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4134819-9 </t>
-  </si>
-  <si>
-    <t>Kommunikation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4031883-7 </t>
-  </si>
-  <si>
-    <t>Bewertung</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4006340-9  </t>
-  </si>
-  <si>
-    <t>Interpretation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4072905-9</t>
-  </si>
-  <si>
-    <t>Kopie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4032423-0 </t>
-  </si>
-  <si>
-    <t>Sangallo, Antonio da &lt;il Giovane&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4076822-3  </t>
-  </si>
-  <si>
-    <t>Peterskirche (Rom) &lt;Petersdom&gt; &lt;San Pietro in Vaticano&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Palazzo Pandolfini (Florenz)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4223239-9 </t>
-  </si>
-  <si>
-    <t>Linearperspektive &lt;Perspektive&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zentralperspektive &lt;Perspektive&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4045301-7 </t>
-  </si>
-  <si>
-    <t>Verzeichnis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4188171-0 </t>
-  </si>
-  <si>
-    <t>Vorlesung</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Akademie der Künste (Berlin)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benedetto, da Maiano</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raffaello, Sanzio &lt;Raffaelo&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1792,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:Z186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1807,38 +1808,38 @@
   <sheetData>
     <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>320</v>
+        <v>92</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>322</v>
+        <v>94</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>333</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="Y4" t="s">
-        <v>158</v>
+        <v>281</v>
       </c>
       <c r="Z4" s="2">
         <v>119491710</v>
@@ -1846,59 +1847,59 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="Y5" t="s">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>160</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c r="Y6" t="s">
-        <v>171</v>
+        <v>294</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>172</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="Y7" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="Z7" s="2">
         <v>118640445</v>
@@ -1906,19 +1907,19 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>236</v>
       </c>
       <c r="Y8" t="s">
-        <v>281</v>
+        <v>54</v>
       </c>
       <c r="Z8" s="2">
         <v>121166341</v>
@@ -1926,19 +1927,19 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="Y9" t="s">
-        <v>282</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="2">
         <v>118982397</v>
@@ -1946,19 +1947,19 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="Y10" t="s">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="Z10" s="2">
         <v>118958437</v>
@@ -1966,19 +1967,19 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="Y11" t="s">
-        <v>292</v>
+        <v>65</v>
       </c>
       <c r="Z11" s="2">
         <v>118740091</v>
@@ -1986,19 +1987,19 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="Y12" t="s">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="Z12" s="2">
         <v>118794426</v>
@@ -2006,19 +2007,19 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="Y13" t="s">
-        <v>387</v>
+        <v>35</v>
       </c>
       <c r="Z13" s="2">
         <v>118841270</v>
@@ -2026,19 +2027,19 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="Y14" t="s">
-        <v>388</v>
+        <v>36</v>
       </c>
       <c r="Z14" s="2">
         <v>118597787</v>
@@ -2046,19 +2047,19 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="Y15" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="Z15" s="2">
         <v>122706196</v>
@@ -2066,39 +2067,39 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>272</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="Y16" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>307</v>
       </c>
       <c r="I17" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="J17" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="Y17" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="Z17" s="2">
         <v>118770039</v>
@@ -2106,59 +2107,59 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>308</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>309</v>
       </c>
       <c r="I18" t="s">
-        <v>277</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>278</v>
+        <v>51</v>
       </c>
       <c r="Y18" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>310</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>311</v>
       </c>
       <c r="I19" t="s">
-        <v>275</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="Y19" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="I20" t="s">
-        <v>349</v>
+        <v>121</v>
       </c>
       <c r="J20" t="s">
-        <v>350</v>
+        <v>122</v>
       </c>
       <c r="Y20" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="Z20" s="2">
         <v>118799770</v>
@@ -2166,13 +2167,13 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="Z21" s="2">
         <v>118796224</v>
@@ -2180,13 +2181,13 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="Y22" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="Z22" s="2">
         <v>188445005</v>
@@ -2194,13 +2195,13 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>340</v>
+        <v>112</v>
       </c>
       <c r="Y23" t="s">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="2">
         <v>118714090</v>
@@ -2208,137 +2209,137 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="1" t="s">
-        <v>321</v>
+        <v>93</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>323</v>
+        <v>95</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>325</v>
+        <v>97</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>332</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="B37" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>352</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>353</v>
       </c>
       <c r="Q37" t="s">
-        <v>50</v>
+        <v>354</v>
       </c>
       <c r="R37" t="s">
-        <v>295</v>
+        <v>68</v>
       </c>
       <c r="Y37" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>356</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>357</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>358</v>
       </c>
       <c r="Q38" t="s">
-        <v>55</v>
+        <v>359</v>
       </c>
       <c r="R38" t="s">
-        <v>297</v>
+        <v>70</v>
       </c>
       <c r="Y38" t="s">
-        <v>286</v>
+        <v>59</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>361</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
+        <v>362</v>
       </c>
       <c r="J39" t="s">
-        <v>59</v>
+        <v>363</v>
       </c>
       <c r="Q39" t="s">
-        <v>60</v>
+        <v>364</v>
       </c>
       <c r="R39" t="s">
-        <v>296</v>
+        <v>69</v>
       </c>
       <c r="Y39" t="s">
-        <v>377</v>
+        <v>25</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>376</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>361</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="J40" t="s">
-        <v>63</v>
+        <v>367</v>
       </c>
       <c r="Q40" t="s">
-        <v>69</v>
+        <v>372</v>
       </c>
       <c r="R40" t="s">
-        <v>298</v>
+        <v>71</v>
       </c>
       <c r="Y40" t="s">
-        <v>378</v>
+        <v>26</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>379</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>368</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>369</v>
       </c>
       <c r="I41" t="s">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
-        <v>170</v>
+        <v>293</v>
       </c>
       <c r="Y41" t="s">
-        <v>386</v>
+        <v>34</v>
       </c>
       <c r="Z41" s="2">
         <v>1073068889</v>
@@ -2346,193 +2347,193 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>371</v>
       </c>
       <c r="Y42" t="s">
-        <v>347</v>
+        <v>119</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>348</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>299</v>
+        <v>39</v>
       </c>
       <c r="Y43" t="s">
-        <v>352</v>
+        <v>37</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="Y44" t="s">
-        <v>354</v>
+        <v>2</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>355</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:26">
       <c r="A45" t="s">
+        <v>373</v>
+      </c>
+      <c r="B45" t="s">
         <v>71</v>
-      </c>
-      <c r="B45" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>380</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>382</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>381</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>382</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>385</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>386</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2">
         <v>1041355866</v>
@@ -2540,548 +2541,548 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>327</v>
+        <v>99</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>331</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="I71" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="J71" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="Q71" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="R71" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="Y71" t="s">
-        <v>273</v>
+        <v>46</v>
       </c>
       <c r="Z71" s="2" t="s">
-        <v>274</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>338</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="I72" t="s">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="J72" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="Q72" t="s">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="R72" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="I73" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="J73" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="Q73" t="s">
-        <v>334</v>
+        <v>106</v>
       </c>
       <c r="R73" t="s">
-        <v>335</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="I74" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="J74" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="I75" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="J75" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c r="B76" t="s">
+        <v>285</v>
+      </c>
+      <c r="I76" t="s">
         <v>162</v>
       </c>
-      <c r="I76" t="s">
-        <v>220</v>
-      </c>
       <c r="J76" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="B77" t="s">
+        <v>287</v>
+      </c>
+      <c r="I77" t="s">
+        <v>152</v>
+      </c>
+      <c r="J77" t="s">
         <v>164</v>
-      </c>
-      <c r="I77" t="s">
-        <v>210</v>
-      </c>
-      <c r="J77" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:26">
       <c r="A78" t="s">
+        <v>288</v>
+      </c>
+      <c r="B78" t="s">
+        <v>289</v>
+      </c>
+      <c r="I78" t="s">
         <v>165</v>
       </c>
-      <c r="B78" t="s">
-        <v>166</v>
-      </c>
-      <c r="I78" t="s">
-        <v>223</v>
-      </c>
       <c r="J78" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>167</v>
+        <v>290</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>291</v>
       </c>
       <c r="I79" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="J79" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:26">
       <c r="A80" t="s">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="I80" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="J80" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c r="I81" t="s">
-        <v>293</v>
+        <v>66</v>
       </c>
       <c r="J81" t="s">
-        <v>294</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>383</v>
+        <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>384</v>
+        <v>32</v>
       </c>
       <c r="I82" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="J82" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>385</v>
+        <v>33</v>
       </c>
       <c r="B83" s="2">
         <v>209509619</v>
       </c>
       <c r="I83" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="J83" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>337</v>
+        <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="I84" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="J84" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>343</v>
+        <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>344</v>
+        <v>116</v>
       </c>
       <c r="I85" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="J85" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>345</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>346</v>
+        <v>118</v>
       </c>
       <c r="I86" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="J86" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="I87" t="s">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="J87" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="I88" t="s">
-        <v>341</v>
+        <v>113</v>
       </c>
       <c r="J88" t="s">
-        <v>342</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="1" t="s">
-        <v>329</v>
+        <v>101</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>330</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:18">
       <c r="A105" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>288</v>
+        <v>61</v>
       </c>
       <c r="I105" t="s">
-        <v>358</v>
+        <v>6</v>
       </c>
       <c r="J105" t="s">
-        <v>359</v>
+        <v>7</v>
       </c>
       <c r="Q105" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="R105" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:18">
       <c r="I106" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="J106" t="s">
-        <v>361</v>
+        <v>9</v>
       </c>
       <c r="Q106" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="R106" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:18">
       <c r="I107" t="s">
-        <v>362</v>
+        <v>10</v>
       </c>
       <c r="J107" t="s">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="Q107" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="R107" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:18">
       <c r="I108" t="s">
-        <v>356</v>
+        <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>357</v>
+        <v>5</v>
       </c>
       <c r="Q108" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="R108" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:18">
       <c r="I109" t="s">
-        <v>364</v>
+        <v>12</v>
       </c>
       <c r="J109" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="Q109" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="R109" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:18">
       <c r="I110" t="s">
-        <v>365</v>
+        <v>13</v>
       </c>
       <c r="J110" t="s">
-        <v>366</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:18">
       <c r="I111" t="s">
-        <v>367</v>
+        <v>15</v>
       </c>
       <c r="J111" t="s">
-        <v>368</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:18">
       <c r="I112" t="s">
-        <v>369</v>
+        <v>17</v>
       </c>
       <c r="J112" t="s">
-        <v>370</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="I113" t="s">
-        <v>371</v>
+        <v>19</v>
       </c>
       <c r="J113" t="s">
-        <v>372</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="I115" t="s">
-        <v>373</v>
+        <v>21</v>
       </c>
       <c r="J115" t="s">
-        <v>374</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
-        <v>324</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>147</v>
+        <v>270</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="B129" t="s">
-        <v>307</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="B130" t="s">
-        <v>308</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>310</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>312</v>
+        <v>84</v>
       </c>
       <c r="B132" t="s">
-        <v>313</v>
+        <v>85</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="B133" t="s">
-        <v>315</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c r="B134" t="s">
-        <v>141</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="B137" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="B138" s="2">
         <v>1049716183</v>
@@ -3089,266 +3090,266 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="B139" t="s">
-        <v>153</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>154</v>
+        <v>277</v>
       </c>
       <c r="B140" t="s">
-        <v>155</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="B141" t="s">
-        <v>272</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>279</v>
+        <v>52</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="B143" t="s">
-        <v>290</v>
+        <v>63</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>283</v>
+        <v>56</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="B145" t="s">
-        <v>317</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>318</v>
+        <v>90</v>
       </c>
       <c r="B146" t="s">
-        <v>319</v>
+        <v>91</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>312</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>314</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>13</v>
+        <v>317</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>14</v>
+        <v>318</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>319</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>320</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>321</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>323</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>20</v>
+        <v>324</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>21</v>
+        <v>325</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>22</v>
+        <v>326</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>327</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>328</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>25</v>
+        <v>329</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>26</v>
+        <v>330</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>27</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>28</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>30</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>31</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>32</v>
+        <v>336</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>33</v>
+        <v>337</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>34</v>
+        <v>338</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>35</v>
+        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>36</v>
+        <v>340</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>37</v>
+        <v>341</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>38</v>
+        <v>342</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>39</v>
+        <v>343</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>40</v>
+        <v>344</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>41</v>
+        <v>345</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>42</v>
+        <v>346</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>43</v>
+        <v>347</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>44</v>
+        <v>348</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>45</v>
+        <v>349</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>46</v>
+        <v>350</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>47</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/data/christoph/Liste Standart_OGND.xlsx
+++ b/data/christoph/Liste Standart_OGND.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="29600" windowHeight="20240" tabRatio="500"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="428">
   <si>
     <t>Giulio II. &lt;Julius II., Papst&gt; &lt;Giuliano della Rovere&gt; &lt;Julio II., Papa&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1123,305 +1123,387 @@
     <t>4136390-5</t>
   </si>
   <si>
-    <t>Cortina</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Città di Castello</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arezzo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pisa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bologna</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monte Cassino</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collalto</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Certosa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Torino</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Paris</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Rimini</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cesena</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Faenza</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ravenna</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modena</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pienza</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Casalpusterlengo</t>
+  </si>
+  <si>
+    <t>Campanella (?)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duino</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angeli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renaissance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4049450-0 </t>
+  </si>
+  <si>
+    <t>Papier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aufriss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4704588-7</t>
+  </si>
+  <si>
+    <t>Baustil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4134057-7</t>
+  </si>
+  <si>
+    <t>Transparentpapier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Riss &lt;Ansicht&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4230496-9     </t>
+  </si>
+  <si>
+    <t>Kunststil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4073889-9</t>
+  </si>
+  <si>
+    <t>Karton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schnitt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gebäude &lt;Motiv&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4798478-8</t>
+  </si>
+  <si>
+    <t>Querschnitt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4125463-6</t>
+  </si>
+  <si>
+    <t>Längsschnitt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4537490-9</t>
+  </si>
+  <si>
+    <t>Milimeterpapier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seitenansicht</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vorderseite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7707654-0 </t>
+  </si>
+  <si>
+    <t>Rückseite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4468345-5</t>
+  </si>
+  <si>
+    <t>Projektion &lt;isometrisch&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4256008-1</t>
+  </si>
+  <si>
+    <t>Projektion &lt;metrisch&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4268054-2</t>
+  </si>
+  <si>
+    <t>Vedute (originalgetrue Wiedergabe)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4001393-5 </t>
+  </si>
+  <si>
+    <t>Nummerierung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4501317-2</t>
+  </si>
+  <si>
+    <t>Motiv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4040360-9 </t>
+  </si>
+  <si>
+    <t>Entwurfszeichnung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4152458-5</t>
+  </si>
+  <si>
+    <t>Cortina &lt;Cortina d'Ampezzo&gt;</t>
+  </si>
+  <si>
+    <t>4085339-1</t>
+  </si>
+  <si>
+    <t>Città di Castello &lt;Città (Castello)&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4085275-1 </t>
+  </si>
+  <si>
+    <t>Arezzo &lt;Comune di Arezzo&gt;</t>
+  </si>
+  <si>
+    <t>4002888-4 </t>
+  </si>
+  <si>
+    <t>Pisa &lt;Comune di Pisa&gt;</t>
+  </si>
+  <si>
+    <t>4046151-8 </t>
+  </si>
+  <si>
+    <t>Bologna &lt;Comune di Bologna &gt;</t>
+  </si>
+  <si>
+    <t>4007616-7 </t>
+  </si>
+  <si>
+    <t>Monte Cassino &lt;Montecassino&gt;</t>
+  </si>
+  <si>
+    <t>4040154-6 </t>
+  </si>
+  <si>
+    <t>Torino &lt;Turin&gt;</t>
+  </si>
+  <si>
+    <t>4061245-4</t>
+  </si>
+  <si>
+    <t>Basel-Stadt &lt;Kanton Basel-Stadt&gt;</t>
+  </si>
+  <si>
+    <t>4044660-8 </t>
+  </si>
+  <si>
+    <t>Rimini &lt;Comune di Rimini&gt;</t>
+  </si>
+  <si>
+    <t>4050057-3</t>
+  </si>
+  <si>
+    <t>Cesena &lt;Comune di Cesena&gt;</t>
+  </si>
+  <si>
+    <t>4085200-3</t>
+  </si>
+  <si>
+    <t>Faenza &lt;Comune di Faenza&gt;</t>
+  </si>
+  <si>
+    <t>4091999-7</t>
+  </si>
+  <si>
+    <t>Ravenna &lt;Comune di Ravenna&gt;</t>
+  </si>
+  <si>
+    <t>4048629-1 </t>
+  </si>
+  <si>
+    <t>Modena &lt;Comune di Modena&gt;</t>
+  </si>
+  <si>
+    <t>4115170-7  </t>
+  </si>
+  <si>
+    <t>Pienza &lt;Corsignano&gt;</t>
+  </si>
+  <si>
+    <t>4115964-0 </t>
   </si>
   <si>
     <t>Cluny</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sorrento</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4010317-1</t>
+  </si>
+  <si>
+    <t>Sorrento &lt;Sorrent&gt;</t>
+  </si>
+  <si>
+    <t>4140588-2</t>
   </si>
   <si>
     <t>Capri</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Salerno</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Postici</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4009452-2 </t>
+  </si>
+  <si>
+    <t>Salerno &lt;Comune di Salerno&gt;</t>
+  </si>
+  <si>
+    <t>4051362-2 </t>
+  </si>
+  <si>
+    <t>Pavia &lt;Comune di Pavia&gt;</t>
+  </si>
+  <si>
+    <t>4044970-1</t>
   </si>
   <si>
     <t xml:space="preserve">Nemi </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Castel Gandolfo</t>
-  </si>
-  <si>
-    <t>Genzano di Roma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4291602-1 </t>
+  </si>
+  <si>
+    <t>Castel Gandolfo &lt;Castelgandolfo &gt;</t>
+  </si>
+  <si>
+    <t>4113206-3</t>
+  </si>
+  <si>
+    <t>Genzano di Roma &lt;Genzano (Roma)&gt;</t>
+  </si>
+  <si>
+    <t>4588925-9 </t>
   </si>
   <si>
     <t>Albano Laziale</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Casalpusterlengo</t>
-  </si>
-  <si>
-    <t>Campanella (?)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amalfi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vietri sul Mare</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>San Germano</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Narni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foligno</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duino</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assisi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Angeli</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collalto</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Susa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pavia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4079681-4 </t>
+  </si>
+  <si>
+    <t>4085165-5 </t>
+  </si>
+  <si>
+    <t>Vietri sul Mare &lt;Vietri (Mare)&gt;</t>
+  </si>
+  <si>
+    <t>4308842-9  </t>
+  </si>
+  <si>
+    <t>Amalfiküste</t>
+  </si>
+  <si>
+    <t>7508205-6 </t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>San Germano (Camerano)</t>
+  </si>
+  <si>
+    <t>4998903-0 </t>
+  </si>
+  <si>
+    <t>Narni &lt;Comune di Narni&gt;</t>
+  </si>
+  <si>
+    <t>4288080-4 </t>
+  </si>
+  <si>
+    <t>Foligno &lt;Comune di Foligno&gt;</t>
+  </si>
+  <si>
+    <t>4093050-6  </t>
+  </si>
+  <si>
+    <t>Assisi &lt;Comune di Assisi&gt;</t>
+  </si>
+  <si>
+    <t>4003260-7 </t>
+  </si>
+  <si>
+    <t>Collalto (Tarcento)</t>
+  </si>
+  <si>
+    <t>7719873-6 </t>
+  </si>
+  <si>
+    <t>Susa &lt;Città di Susa&gt;</t>
+  </si>
+  <si>
+    <t>5168349-0   </t>
   </si>
   <si>
     <t>Renaissance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4049450-0 </t>
-  </si>
-  <si>
-    <t>Papier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aufriss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4704588-7</t>
-  </si>
-  <si>
-    <t>Baustil</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4134057-7</t>
-  </si>
-  <si>
-    <t>Transparentpapier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Riss &lt;Ansicht&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4230496-9     </t>
-  </si>
-  <si>
-    <t>Kunststil</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4073889-9</t>
-  </si>
-  <si>
-    <t>Karton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schnitt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gebäude &lt;Motiv&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4798478-8</t>
-  </si>
-  <si>
-    <t>Querschnitt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4125463-6</t>
-  </si>
-  <si>
-    <t>Längsschnitt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4537490-9</t>
-  </si>
-  <si>
-    <t>Milimeterpapier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seitenansicht</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vorderseite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7707654-0 </t>
-  </si>
-  <si>
-    <t>Rückseite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4468345-5</t>
-  </si>
-  <si>
-    <t>Projektion &lt;isometrisch&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4256008-1</t>
-  </si>
-  <si>
-    <t>Projektion &lt;metrisch&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4268054-2</t>
-  </si>
-  <si>
-    <t>Vedute (originalgetrue Wiedergabe)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4001393-5 </t>
-  </si>
-  <si>
-    <t>Nummerierung</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4501317-2</t>
-  </si>
-  <si>
-    <t>Motiv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4040360-9 </t>
-  </si>
-  <si>
-    <t>Entwurfszeichnung</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4152458-5</t>
+  </si>
+  <si>
+    <t>Denkmalpflege</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>4049450-0</t>
+  </si>
+  <si>
+    <t>4011455-7 </t>
+  </si>
+  <si>
+    <t>St.Peter &lt;Peterskirche (Rom)&gt;</t>
+  </si>
+  <si>
+    <t>4076822-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1435,13 +1517,24 @@
       <sz val="8"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1456,18 +1549,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1790,23 +1891,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:Z186"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Z185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" customWidth="1"/>
-    <col min="25" max="25" width="21.42578125" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="17" max="17" width="21.375" customWidth="1"/>
+    <col min="25" max="25" width="21.375" customWidth="1"/>
+    <col min="26" max="26" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>216</v>
       </c>
@@ -1814,7 +1915,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -1825,7 +1926,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>218</v>
       </c>
@@ -1845,7 +1946,7 @@
         <v>119491710</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>222</v>
       </c>
@@ -1865,7 +1966,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>226</v>
       </c>
@@ -1885,7 +1986,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>229</v>
       </c>
@@ -1905,7 +2006,7 @@
         <v>118640445</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -1925,7 +2026,7 @@
         <v>121166341</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>170</v>
       </c>
@@ -1945,7 +2046,7 @@
         <v>118982397</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>239</v>
       </c>
@@ -1965,7 +2066,7 @@
         <v>118958437</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>243</v>
       </c>
@@ -1985,7 +2086,7 @@
         <v>118740091</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>247</v>
       </c>
@@ -2005,7 +2106,7 @@
         <v>118794426</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -2025,7 +2126,7 @@
         <v>118841270</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>255</v>
       </c>
@@ -2045,7 +2146,7 @@
         <v>118597787</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>259</v>
       </c>
@@ -2065,7 +2166,7 @@
         <v>122706196</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>304</v>
       </c>
@@ -2085,7 +2186,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>306</v>
       </c>
@@ -2105,7 +2206,7 @@
         <v>118770039</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>308</v>
       </c>
@@ -2125,7 +2226,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>310</v>
       </c>
@@ -2145,7 +2246,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -2165,7 +2266,7 @@
         <v>118799770</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -2179,7 +2280,7 @@
         <v>118796224</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>300</v>
       </c>
@@ -2193,7 +2294,7 @@
         <v>188445005</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>111</v>
       </c>
@@ -2207,7 +2308,7 @@
         <v>118714090</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
@@ -2221,7 +2322,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>172</v>
       </c>
@@ -2229,13 +2330,13 @@
         <v>173</v>
       </c>
       <c r="I37" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="J37" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="Q37" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="R37" t="s">
         <v>68</v>
@@ -2247,21 +2348,21 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="I38" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="J38" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="Q38" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="R38" t="s">
         <v>70</v>
@@ -2273,21 +2374,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="I39" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="J39" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="Q39" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="R39" t="s">
         <v>69</v>
@@ -2299,21 +2400,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="I40" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="J40" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="Q40" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="R40" t="s">
         <v>71</v>
@@ -2325,12 +2426,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="I41" t="s">
         <v>292</v>
@@ -2345,12 +2446,12 @@
         <v>1073068889</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="Y42" t="s">
         <v>119</v>
@@ -2359,7 +2460,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -2373,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -2387,15 +2488,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -2403,7 +2504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -2411,71 +2512,71 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="B51" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="B53" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -2483,7 +2584,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>213</v>
       </c>
@@ -2491,7 +2592,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>296</v>
       </c>
@@ -2499,7 +2600,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>298</v>
       </c>
@@ -2507,7 +2608,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>300</v>
       </c>
@@ -2515,7 +2616,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>302</v>
       </c>
@@ -2523,7 +2624,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -2531,7 +2632,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2539,15 +2640,15 @@
         <v>1041355866</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -2555,7 +2656,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -2563,7 +2664,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -2571,7 +2672,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -2579,7 +2680,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2587,7 +2688,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2604,7 +2705,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2630,7 +2731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>110</v>
       </c>
@@ -2650,7 +2751,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -2670,7 +2771,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -2684,7 +2785,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>279</v>
       </c>
@@ -2698,7 +2799,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>284</v>
       </c>
@@ -2712,7 +2813,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>286</v>
       </c>
@@ -2726,7 +2827,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>288</v>
       </c>
@@ -2740,7 +2841,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>290</v>
       </c>
@@ -2754,7 +2855,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>207</v>
       </c>
@@ -2768,7 +2869,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -2782,7 +2883,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -2796,7 +2897,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -2810,7 +2911,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -2824,7 +2925,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -2838,7 +2939,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>117</v>
       </c>
@@ -2852,7 +2953,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I87" t="s">
         <v>202</v>
       </c>
@@ -2860,7 +2961,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I88" t="s">
         <v>113</v>
       </c>
@@ -2868,7 +2969,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
@@ -2879,7 +2980,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -2899,7 +3000,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>424</v>
+      </c>
       <c r="I106" t="s">
         <v>8</v>
       </c>
@@ -2913,7 +3020,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="I107" t="s">
         <v>10</v>
       </c>
@@ -2927,7 +3040,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>427</v>
+      </c>
       <c r="I108" t="s">
         <v>4</v>
       </c>
@@ -2941,7 +3060,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="I109" t="s">
         <v>12</v>
       </c>
@@ -2955,7 +3077,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I110" t="s">
         <v>13</v>
       </c>
@@ -2963,7 +3085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I111" t="s">
         <v>15</v>
       </c>
@@ -2971,7 +3093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I112" t="s">
         <v>17</v>
       </c>
@@ -2979,7 +3101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I113" t="s">
         <v>19</v>
       </c>
@@ -2987,7 +3109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I115" t="s">
         <v>21</v>
       </c>
@@ -2995,12 +3117,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>270</v>
       </c>
@@ -3008,7 +3130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>78</v>
       </c>
@@ -3016,7 +3138,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>81</v>
       </c>
@@ -3024,7 +3146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>83</v>
       </c>
@@ -3032,7 +3154,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>84</v>
       </c>
@@ -3040,7 +3162,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -3048,7 +3170,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>263</v>
       </c>
@@ -3056,7 +3178,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>86</v>
       </c>
@@ -3064,7 +3186,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>266</v>
       </c>
@@ -3072,7 +3194,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>268</v>
       </c>
@@ -3080,7 +3202,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -3088,7 +3210,7 @@
         <v>1049716183</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>275</v>
       </c>
@@ -3096,7 +3218,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>277</v>
       </c>
@@ -3104,7 +3226,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>44</v>
       </c>
@@ -3112,7 +3234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>52</v>
       </c>
@@ -3120,7 +3242,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>62</v>
       </c>
@@ -3128,7 +3250,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>56</v>
       </c>
@@ -3136,7 +3258,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>88</v>
       </c>
@@ -3144,7 +3266,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>90</v>
       </c>
@@ -3152,211 +3274,314 @@
         <v>91</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
+      <c r="B154" s="4"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B156" s="4">
+        <v>1077172354</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
+      <c r="B157" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
+      <c r="B173" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
+      <c r="B174" s="4"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
+      <c r="B177" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
+      <c r="B181" s="4"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>351</v>
+      <c r="B183" s="4"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/christoph/Liste Standart_OGND.xlsx
+++ b/data/christoph/Liste Standart_OGND.xlsx
@@ -19,7 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="477">
+  <si>
+    <t>Fabbrica di San Pietro &lt;Fabbrica di S. Pietro&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5529467-4  </t>
+  </si>
   <si>
     <t>München &lt;Munich&gt; &lt;Monaco (Bayern)&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -49,6 +56,139 @@
     <t>Melozzo, da Forlì</t>
   </si>
   <si>
+    <t>Foscolo, Ugo</t>
+  </si>
+  <si>
+    <t>Vatikanstadt &lt;Vatikan&gt; &lt;Vatican&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4200583-8 </t>
+  </si>
+  <si>
+    <t>Anmerkung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Gennaro (Rom)</t>
+  </si>
+  <si>
+    <t>Palombara Sabina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4284027-2 </t>
+  </si>
+  <si>
+    <t>Monte Circeo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4102162-9  </t>
+  </si>
+  <si>
+    <t>Tivoli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4060267-9</t>
+  </si>
+  <si>
+    <t>Genazzano</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4447351-5</t>
+  </si>
+  <si>
+    <t>Albaner See &lt;Lago di Albano&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4493818-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fische &lt;Fisch&gt; </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4017269-7  </t>
+  </si>
+  <si>
+    <t>Pompei &lt;Pompeji&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4046755-7</t>
+  </si>
+  <si>
+    <t>Narni</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4288080-4 </t>
+  </si>
+  <si>
+    <t>Foligno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4093050-6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4363100-9 </t>
+  </si>
+  <si>
+    <t>Lago Trasimeno &lt;Trasimenischer See&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahnhof</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4129465-8 </t>
+  </si>
+  <si>
+    <t>Konstruktion &lt;Baukonstruktion&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4004821-4  </t>
+  </si>
+  <si>
+    <t>Amalfi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4085657-4   </t>
+  </si>
+  <si>
+    <t>San Rossore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4439077-4 </t>
+  </si>
+  <si>
+    <t>Montecatini Val di Cecina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4756170-1  </t>
+  </si>
+  <si>
+    <t>Serravalle Sesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4624103-6 </t>
+  </si>
+  <si>
+    <t>Cap Gris-Nez &lt;Cap Gris Nez&gt; &lt;Cap Grisnez&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7515343-9</t>
+  </si>
+  <si>
     <t>Rückseite</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -970,10 +1110,6 @@
   </si>
   <si>
     <t xml:space="preserve">4050471-2 </t>
-  </si>
-  <si>
-    <t>Vatikanstadt &lt;Vatikan&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4062404-3  </t>
@@ -1923,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:Z189"/>
+  <dimension ref="A2:Z204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1940,38 +2076,38 @@
   <sheetData>
     <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="I4" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="J4" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="Y4" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="Z4" s="2">
         <v>119491710</v>
@@ -1979,59 +2115,59 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="I5" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="J5" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="Y5" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="I6" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="J6" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="Y6" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="I7" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="J7" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="Y7" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="Z7" s="2">
         <v>118640445</v>
@@ -2039,19 +2175,19 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="J8" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="Y8" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="Z8" s="2">
         <v>121166341</v>
@@ -2059,19 +2195,19 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="I9" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="J9" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="Y9" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="Z9" s="2">
         <v>118982397</v>
@@ -2079,19 +2215,19 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="I10" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="J10" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="Y10" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="Z10" s="2">
         <v>118958437</v>
@@ -2099,19 +2235,19 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="I11" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="J11" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="Y11" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="Z11" s="2">
         <v>118740091</v>
@@ -2119,19 +2255,19 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="I12" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="J12" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="Y12" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="Z12" s="2">
         <v>118794426</v>
@@ -2139,19 +2275,19 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="Y13" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="Z13" s="2">
         <v>118841270</v>
@@ -2159,19 +2295,19 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="Z14" s="2">
         <v>118597787</v>
@@ -2179,19 +2315,19 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y15" t="s">
         <v>240</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>199</v>
       </c>
       <c r="Z15" s="2">
         <v>122706196</v>
@@ -2199,39 +2335,39 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="Y16" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="I17" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="J17" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="Y17" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="Z17" s="2">
         <v>118770039</v>
@@ -2239,59 +2375,59 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="I18" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="J18" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="Y18" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="I19" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="J19" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="Y19" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="I20" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="J20" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="Z20" s="2">
         <v>118799770</v>
@@ -2299,13 +2435,19 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>320</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
       </c>
       <c r="Y21" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="Z21" s="2">
         <v>118796224</v>
@@ -2313,13 +2455,19 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>155</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
       </c>
       <c r="Y22" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="Z22" s="2">
         <v>188445005</v>
@@ -2327,13 +2475,13 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="B23" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="Y23" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="Z23" s="2">
         <v>118714090</v>
@@ -2341,145 +2489,153 @@
     </row>
     <row r="24" spans="1:26">
       <c r="Y24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z24" s="2">
         <v>118783114</v>
       </c>
     </row>
+    <row r="25" spans="1:26">
+      <c r="Y25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>118534483</v>
+      </c>
+    </row>
     <row r="36" spans="1:26">
       <c r="A36" s="1" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="I37" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="J37" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="Q37" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="R37" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="Y37" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="J38" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="Q38" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="R38" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="Y38" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="I39" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="J39" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="Q39" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="R39" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="Y39" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
     </row>
     <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="I40" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="J40" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="Q40" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="R40" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="Y40" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="I41" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="J41" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="Y41" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="Z41" s="2">
         <v>1073068889</v>
@@ -2487,193 +2643,193 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="Y42" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="B43" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="Y43" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="B44" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="Y44" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="B45" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="B46" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="B47" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="B48" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="B62" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="B63" s="2">
         <v>1041355866</v>
@@ -2681,569 +2837,589 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="B65" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="B66" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="B67" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="B68" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="B69" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:26">
       <c r="A70" t="s">
+        <v>382</v>
+      </c>
+      <c r="B70" t="s">
+        <v>383</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B70" t="s">
-        <v>343</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="Q70" s="1" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="B71" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="I71" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="J71" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="Q71" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="R71" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="Y71" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="Z71" s="2" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="B72" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="I72" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="J72" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="Q72" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="R72" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="B73" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="I73" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="J73" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="Q73" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="R73" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="B74" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="I74" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="J74" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="I75" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="J75" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="I76" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="J76" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="I77" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="J77" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="I78" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="J78" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="I79" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="J79" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
     </row>
     <row r="80" spans="1:26">
       <c r="A80" t="s">
+        <v>273</v>
+      </c>
+      <c r="B80" t="s">
+        <v>274</v>
+      </c>
+      <c r="I80" t="s">
+        <v>233</v>
+      </c>
+      <c r="J80" t="s">
         <v>232</v>
-      </c>
-      <c r="B80" t="s">
-        <v>233</v>
-      </c>
-      <c r="I80" t="s">
-        <v>192</v>
-      </c>
-      <c r="J80" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="B81" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="I81" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="J81" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="B82" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="I82" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="J82" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="B83" s="2">
         <v>209509619</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="J83" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="B84" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="I84" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="J84" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="B85" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="I85" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="J85" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="B86" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="I86" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="J86" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
       <c r="I87" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="J87" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
       <c r="I88" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="J88" t="s">
-        <v>317</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="1" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:18">
       <c r="A105" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="B105" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="I105" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="J105" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="Q105" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="R105" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="5" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="I106" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="J106" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="Q106" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="R106" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="5" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="I107" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="J107" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="Q107" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="R107" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="5" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="I108" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="J108" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="Q108" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="R108" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="3" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="I109" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="J109" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="Q109" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="R109" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:18">
       <c r="I110" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="J110" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:18">
       <c r="I111" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="J111" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
     </row>
     <row r="112" spans="1:18">
       <c r="I112" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="J112" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="I113" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="J113" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="I115" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="J115" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="B128" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="B130" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="B131" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="B132" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="B133" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="B134" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="B135" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="B136" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="B137" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="B138" s="2">
         <v>1049716183</v>
@@ -3251,141 +3427,141 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="B139" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B140" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="B141" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="B142" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="B143" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="B144" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="B145" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="B146" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="4" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="5" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="4" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="5" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="5" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="5" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="5" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="B154" s="4"/>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="5" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="5" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B156" s="4">
         <v>1077172354</v>
@@ -3393,260 +3569,380 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="4" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="5" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="5" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="5" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="5" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="5" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="5" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="5" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="5" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="5" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="5" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="5" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="5" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="5" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="5" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="5" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="4" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="4" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B174" s="4"/>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="5" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="5" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="4" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="5" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="5" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="5" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="B181" s="4"/>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="5" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="4" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="B183" s="4"/>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="5" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="5" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B186" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B187" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190" s="2">
+        <v>1051236975</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>39</v>
+      </c>
+      <c r="B195" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>27</v>
+      </c>
+      <c r="B197" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>29</v>
+      </c>
+      <c r="B198" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>31</v>
+      </c>
+      <c r="B199" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>34</v>
+      </c>
+      <c r="B200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>41</v>
+      </c>
+      <c r="B201" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>43</v>
+      </c>
+      <c r="B202" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>45</v>
+      </c>
+      <c r="B203" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>47</v>
+      </c>
+      <c r="B204" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/christoph/Liste Standart_OGND.xlsx
+++ b/data/christoph/Liste Standart_OGND.xlsx
@@ -19,7 +19,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="665">
+  <si>
+    <t xml:space="preserve">16200381-X  </t>
+  </si>
+  <si>
+    <t>Schachner, Friedrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101953592X </t>
+  </si>
+  <si>
+    <t>Neumann, Franz von</t>
+  </si>
+  <si>
+    <t>Helmer, Hermann</t>
+  </si>
+  <si>
+    <t>Fellner, Ferdinand</t>
+  </si>
+  <si>
+    <t>Maxentiusbasilika (Rom) &lt;Konstantins-Basilika Rom&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4447513-5</t>
+  </si>
+  <si>
+    <t>Vignola, Giacomo Barozzi da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11925011X </t>
+  </si>
+  <si>
+    <t>Kupferstichkabinett (München)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10112902-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4531324-6 </t>
+  </si>
+  <si>
+    <t>Verlagsanstalt für Kunst und Wissenschaft vormals Friedrich Bruckmann (München)</t>
+  </si>
+  <si>
+    <t>Schreibmaschinenschrift &lt;Schreibmaschine / Schrift&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4348465-7</t>
+  </si>
+  <si>
+    <t>Handschrift &lt;Graphologie&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4023287-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4269003-1  </t>
+  </si>
+  <si>
+    <t>Layout &lt;Textgestaltung&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANDLUNG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soane's Museum &lt;Sir John Soane's Museum&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alte Pinakothek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003891-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11868101X </t>
+  </si>
+  <si>
+    <t>Ducerceau, Paul Androuet</t>
+  </si>
+  <si>
+    <t>Ducerceau, Jacques Androuet &lt;Androuet du Cerceau, Jacques&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filarete &lt;Antonius, Averlinus Filarete&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ares (Frankreich)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lille (Frankreich)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schreibfeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4348438-4  </t>
+  </si>
+  <si>
+    <t>Baglioni, Baccio d'Agnolo</t>
+  </si>
+  <si>
+    <t>British Museum. Department of Prints and Drawings</t>
+  </si>
+  <si>
+    <t>Belichtung &lt;Exposition&gt; &lt;Fotografie&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lelame (Pisa)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bazzano (Bologna)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Montecatini </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pistoia &lt;Pistoya&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dom Pisa (Pisa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4206436-3   </t>
+  </si>
   <si>
     <t>4461208-4</t>
   </si>
@@ -31,7 +169,7 @@
   </si>
   <si>
     <t>Villa Farnesina (Rom) &lt;Palazzo della Farnesina (Rom)&gt; &lt;Farnesina (Rom)&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">5125629-0  </t>
@@ -44,7 +182,7 @@
   </si>
   <si>
     <t>Abtei St. Paul vor den Mauern Rom &lt;Abbazia di S. Paolo fuori le Mura Rom&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1012968-6  </t>
@@ -60,7 +198,7 @@
   </si>
   <si>
     <t>Ferstel, Heinrich von</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Hasenauer, Carl von</t>
@@ -73,7 +211,7 @@
   </si>
   <si>
     <t>Dom Cesena &lt;San Giovanni Battista (Cesena)&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">7612505-1 </t>
@@ -89,7 +227,7 @@
   </si>
   <si>
     <t>Basilica Sant'Apollinare in Classe (Ravenna)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4505877-5  </t>
@@ -123,14 +261,14 @@
   </si>
   <si>
     <t>Beheizung &lt;Heizung&gt; &lt;Heiztechnik&gt; &lt;Heizungsanlage&gt; &lt;Heizungstechnik&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4024271-7 </t>
   </si>
   <si>
     <t>Bautechnik</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4004955-3  </t>
@@ -146,29 +284,29 @@
   </si>
   <si>
     <t>Rechnung</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MERKMALE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4120942-4 </t>
   </si>
   <si>
     <t>Aufkleber &lt;Etikett&gt; &lt;Klebezettel&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Stempel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">183099-4  </t>
   </si>
   <si>
     <t>Crewe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4090617-6 </t>
@@ -178,18 +316,18 @@
   </si>
   <si>
     <t>Cheshire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Liverpool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">5249874-8 </t>
   </si>
   <si>
     <t>Stock Exchange (Liverpool) &lt;Liverpool Stock Exchange&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Burges, William</t>
@@ -208,7 +346,7 @@
   </si>
   <si>
     <t>Viollet-le-Duc, Eugène-Emmanuel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Boffi, Luigi</t>
@@ -218,7 +356,7 @@
   </si>
   <si>
     <t>Flattich, Wilhelm von &lt;Flattich, Wilhelm Gustav&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">11853372X  </t>
@@ -227,44 +365,47 @@
     <t>Südbahnhof (Wien)</t>
   </si>
   <si>
-    <t xml:space="preserve">16200381-X  </t>
-  </si>
-  <si>
-    <t>Schachner, Friedrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101953592X </t>
-  </si>
-  <si>
-    <t>Neumann, Franz von</t>
-  </si>
-  <si>
-    <t>Helmer, Hermann</t>
-  </si>
-  <si>
-    <t>Fellner, Ferdinand</t>
-  </si>
-  <si>
-    <t>Maxentiusbasilika (Rom) &lt;Konstantins-Basilika Rom&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4447513-5</t>
+    <t>Pompei &lt;Pompeji&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4046755-7</t>
+  </si>
+  <si>
+    <t>Narni</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4288080-4 </t>
+  </si>
+  <si>
+    <t>Foligno</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4093050-6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4363100-9 </t>
+  </si>
+  <si>
+    <t>Lago Trasimeno &lt;Trasimenischer See&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>San Giovanni in Laterano (Rom) &lt;Lateranbasilika (Rom)&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4124075-3 </t>
   </si>
   <si>
     <t>Maderna, Carlo &lt;Maderno, Carlo&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Michelangelo, Buonarotti &lt;Buonarotti, Michelangelo&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>San Carlo ai Catinari (Rom)</t>
@@ -292,7 +433,7 @@
   </si>
   <si>
     <t>San Pietro in Montorio (Rom)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Bernardo, di Lorenzo</t>
@@ -305,7 +446,7 @@
   </si>
   <si>
     <t>Palazzo Pazzi-Quaratesi (Florenz) &lt;Palazzo Pazzi &lt;Via del Proconsolo&gt; (Florenz)&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Santa Croce (Florenz)</t>
@@ -330,7 +471,7 @@
   </si>
   <si>
     <t>Madonna del Monte (Cesena) &lt;Basilica della Madonna del Monte (Cesena)&gt; &lt;Santa Maria del Monte (Cesena)&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rocca Malatestiana (Cesena)</t>
@@ -343,56 +484,56 @@
   </si>
   <si>
     <t>Cap Gris-Nez &lt;Cap Gris Nez&gt; &lt;Cap Grisnez&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>7515343-9</t>
   </si>
   <si>
     <t>Rückseite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4468345-5</t>
   </si>
   <si>
     <t>Projektion &lt;isometrisch&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4256008-1</t>
   </si>
   <si>
     <t>Projektion &lt;metrisch&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4268054-2</t>
   </si>
   <si>
     <t>Vedute (originalgetrue Wiedergabe)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4001393-5 </t>
   </si>
   <si>
     <t>Nummerierung</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4501317-2</t>
   </si>
   <si>
     <t>Motiv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4040360-9 </t>
   </si>
   <si>
     <t>Entwurfszeichnung</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4152458-5</t>
@@ -447,7 +588,7 @@
   </si>
   <si>
     <t>Fotopapier &lt;Photopapier&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4123949-0  </t>
@@ -456,41 +597,42 @@
     <t xml:space="preserve">4005413-5 </t>
   </si>
   <si>
-    <t>Belichtung &lt;Exposition&gt; &lt;Fotografie&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lelame (Pisa)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bazzano (Bologna)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Montecatini </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pistoia &lt;Pistoya&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dom Pisa (Pisa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4206436-3   </t>
+    <t>Amalfiküste</t>
+  </si>
+  <si>
+    <t>7508205-6 </t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>San Germano (Camerano)</t>
+  </si>
+  <si>
+    <t>4998903-0 </t>
+  </si>
+  <si>
+    <t>Narni &lt;Comune di Narni&gt;</t>
+  </si>
+  <si>
+    <t>4288080-4 </t>
+  </si>
+  <si>
+    <t>Foligno &lt;Comune di Foligno&gt;</t>
+  </si>
+  <si>
+    <t>4093050-6  </t>
   </si>
   <si>
     <t>Certosa di Firenze</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4223291-0</t>
   </si>
   <si>
     <t>Grosetto</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Villa Borghese (Rom)</t>
@@ -524,14 +666,14 @@
   </si>
   <si>
     <t>Zeitschrift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4067488-5 </t>
   </si>
   <si>
     <t>Außenwand</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4112641-5</t>
@@ -544,29 +686,29 @@
   </si>
   <si>
     <t>Innenwand</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4133850-9  </t>
   </si>
   <si>
     <t>Bildliche Darstellung &lt;Abbildung&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4145419-4</t>
   </si>
   <si>
     <t>Grabmal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Reggio (Calabria)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mailand &lt;Milano&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4037100-1 </t>
@@ -576,107 +718,107 @@
   </si>
   <si>
     <t>Lehnin &lt;Kloser Lehnin&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>115338-9</t>
   </si>
   <si>
     <t>Florenz &lt;Firenze&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4017581-9  </t>
   </si>
   <si>
     <t>Rom &lt;Roma&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4279136-4</t>
   </si>
   <si>
     <t>Schloss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4052753-0</t>
   </si>
   <si>
     <t>Mex (Waad)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Waad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4078982-2 </t>
   </si>
   <si>
     <t>Lausanne</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4034750-3 </t>
   </si>
   <si>
     <t>Profil</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4533611-8     </t>
   </si>
   <si>
     <t>Geymüller, Heinrich von</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Familie</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4016397-0 </t>
   </si>
   <si>
     <t>Sitzen &lt;Motiv&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4679406-2 </t>
   </si>
   <si>
     <t>Figur</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Fabbrica di San Pietro &lt;Fabbrica di S. Pietro&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">5529467-4  </t>
   </si>
   <si>
     <t>München &lt;Munich&gt; &lt;Monaco (Bayern)&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Bari </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4086384-0 </t>
   </si>
   <si>
     <t>Venedig &lt;Venezia&gt; &lt;Venice&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4062501-1 </t>
   </si>
   <si>
     <t>&lt;San Pietro in Montorio (Rom)&gt; &lt;S. Pietro in Montorio (Rom)&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4823245-2 </t>
@@ -689,14 +831,14 @@
   </si>
   <si>
     <t>Vatikanstadt &lt;Vatikan&gt; &lt;Vatican&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4200583-8 </t>
   </si>
   <si>
     <t>Anmerkung</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>San Gennaro (Rom)</t>
@@ -709,113 +851,118 @@
   </si>
   <si>
     <t>Monte Circeo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4102162-9  </t>
   </si>
   <si>
     <t>Tivoli</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4060267-9</t>
   </si>
   <si>
     <t>Genazzano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4447351-5</t>
   </si>
   <si>
     <t>Albaner See &lt;Lago di Albano&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4493818-4 </t>
   </si>
   <si>
     <t xml:space="preserve">Fische &lt;Fisch&gt; </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4017269-7  </t>
   </si>
   <si>
-    <t>Pompei &lt;Pompeji&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4046755-7</t>
-  </si>
-  <si>
-    <t>Narni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4288080-4 </t>
-  </si>
-  <si>
-    <t>Foligno</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4093050-6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4363100-9 </t>
-  </si>
-  <si>
-    <t>Lago Trasimeno &lt;Trasimenischer See&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>Papier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aufriss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4704588-7</t>
+  </si>
+  <si>
+    <t>Baustil</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4134057-7</t>
+  </si>
+  <si>
+    <t>Transparentpapier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Riss &lt;Ansicht&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4230496-9     </t>
+  </si>
+  <si>
+    <t>Kunststil</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Bahnhof</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4129465-8 </t>
   </si>
   <si>
     <t>Konstruktion &lt;Baukonstruktion&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4004821-4  </t>
   </si>
   <si>
     <t>Amalfi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4085657-4   </t>
   </si>
   <si>
     <t>San Rossore</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4537490-9</t>
   </si>
   <si>
     <t>Milimeterpapier</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Seitenansicht</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Vorderseite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">7707654-0 </t>
   </si>
   <si>
     <t>Schreibfeder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4348438-4 </t>
@@ -825,32 +972,32 @@
   </si>
   <si>
     <t>Schreibstift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4005413-5</t>
   </si>
   <si>
     <t>Belichtung (Doppel)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Broschüre</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4146704-8</t>
   </si>
   <si>
     <t>Notiz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4206777-7</t>
   </si>
   <si>
     <t>Grundriss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4022346-2</t>
@@ -881,55 +1028,55 @@
   </si>
   <si>
     <t>Sangallo, Giuliano da</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Serlio, Sebastiano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Caradosso</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Gelb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4438206-6</t>
   </si>
   <si>
     <t>Bleistift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Schwarz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4180332-2  </t>
   </si>
   <si>
     <t>Schreibstift &lt;Stift&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4348436-0   </t>
   </si>
   <si>
     <t>Weiß</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4189483-2</t>
   </si>
   <si>
     <t>Rot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Blau</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4178482-0  </t>
@@ -1037,31 +1184,39 @@
     <t>4308842-9  </t>
   </si>
   <si>
-    <t>Amalfiküste</t>
-  </si>
-  <si>
-    <t>7508205-6 </t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>San Germano (Camerano)</t>
-  </si>
-  <si>
-    <t>4998903-0 </t>
-  </si>
-  <si>
-    <t>Narni &lt;Comune di Narni&gt;</t>
-  </si>
-  <si>
-    <t>4288080-4 </t>
-  </si>
-  <si>
-    <t>Foligno &lt;Comune di Foligno&gt;</t>
-  </si>
-  <si>
-    <t>4093050-6  </t>
+    <t>Vierung</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4121876-0</t>
+  </si>
+  <si>
+    <t>Blatt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007051-7</t>
+  </si>
+  <si>
+    <t>Gebäude</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4156127-2 </t>
+  </si>
+  <si>
+    <t>Skizze</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4181668-7 </t>
+  </si>
+  <si>
+    <t>Kuppel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4166190-4</t>
   </si>
   <si>
     <t>Assisi &lt;Comune di Assisi&gt;</t>
@@ -1089,21 +1244,21 @@
   </si>
   <si>
     <t>Chorraum &lt;Chor&gt; &lt;Presbyterium&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4069980-8</t>
   </si>
   <si>
     <t>Heft</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4704591-7 </t>
   </si>
   <si>
     <t>Fassade &lt;Aussenwand&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4356677-7 </t>
@@ -1113,7 +1268,7 @@
   </si>
   <si>
     <t>Illustration (Abbildung)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4123412-1 </t>
@@ -1129,102 +1284,102 @@
   </si>
   <si>
     <t>Toskana &lt;Toscana&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4018145-5  </t>
   </si>
   <si>
     <t>Frankreich &lt;France&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Carpi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4085157-6</t>
   </si>
   <si>
     <t>Berlin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4103588-4  </t>
   </si>
   <si>
     <t>Baden-Baden</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4004169-4 </t>
   </si>
   <si>
     <t>Ostia Antica (Region)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4459238-3 </t>
   </si>
   <si>
     <t>TYPUS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>INHALT, DARSTELLUNG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ARCHITEKTUR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BAUSTIL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ORTE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MATERIAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EIGENSCHAFT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TECHNIK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>REFERENZEBENEN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>THEMEN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FARBEN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ORGANISATION</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BAUWERK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PERSON</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Teil</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4184608-4 </t>
@@ -1234,194 +1389,189 @@
   </si>
   <si>
     <t>Seite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4229620-1</t>
   </si>
   <si>
     <t xml:space="preserve">Zusammensetzung </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4191159-3</t>
   </si>
   <si>
     <t>Sammlung</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4128844-0 </t>
   </si>
   <si>
     <t>Periode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4197595-9</t>
   </si>
   <si>
     <t>Burckhardt, Jacob</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">11851752X </t>
   </si>
   <si>
     <t>Nachricht</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4127996-7 </t>
   </si>
   <si>
     <t>Detail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4137867-2</t>
   </si>
   <si>
     <t>Abschrift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4279136-4 </t>
   </si>
   <si>
     <t>Liste (Objekte)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4167829-1</t>
   </si>
   <si>
     <t>Plakat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4046198-1     </t>
   </si>
   <si>
     <t>Grafik</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4021845-4</t>
   </si>
   <si>
     <t>Druckbogen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4471024-0     </t>
   </si>
   <si>
     <t>Prospekt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4136390-5</t>
   </si>
   <si>
     <t>Certosa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Paris</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Casalpusterlengo</t>
   </si>
   <si>
     <t>Campanella (?)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Schia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Duino</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Angeli</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Renaissance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4049450-0 </t>
   </si>
   <si>
-    <t>Papier</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aufriss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4704588-7</t>
-  </si>
-  <si>
-    <t>Baustil</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4134057-7</t>
-  </si>
-  <si>
-    <t>Transparentpapier</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Riss &lt;Ansicht&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4230496-9     </t>
-  </si>
-  <si>
-    <t>Kunststil</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>Beschriftung</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4298755-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4297336-3 </t>
+  </si>
+  <si>
+    <t>Diagramm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4012044-2</t>
+  </si>
+  <si>
+    <t>Zeitschriftenaufsatz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4125424-7</t>
+  </si>
+  <si>
+    <t>Lichtdruck</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4073889-9</t>
   </si>
   <si>
     <t>Karton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Schnitt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Gebäude &lt;Motiv&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4798478-8</t>
   </si>
   <si>
     <t>Querschnitt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4125463-6</t>
   </si>
   <si>
     <t>Längsschnitt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Zeichnung &lt;Motiv&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4524906-4</t>
@@ -1440,163 +1590,163 @@
   </si>
   <si>
     <t>Giulio II. &lt;Julius II., Papst&gt; &lt;Giuliano della Rovere&gt; &lt;Julio II., Papa&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4097998-2</t>
   </si>
   <si>
     <t>Santa Maria della Consolazione (Todi)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4388898-7 </t>
   </si>
   <si>
     <t>Entität</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4629260-3</t>
   </si>
   <si>
     <t>Idee</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4026475-0 </t>
   </si>
   <si>
     <t>Konzeption &lt;Konzept&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4204973-8 </t>
   </si>
   <si>
     <t>Medialität &lt;Medium&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4604953-8 </t>
   </si>
   <si>
     <t>Gebäude &lt;Bauwerk&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Person</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4134819-9 </t>
   </si>
   <si>
     <t>Kommunikation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4031883-7 </t>
   </si>
   <si>
     <t>Bewertung</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4006340-9  </t>
   </si>
   <si>
     <t>Interpretation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4072905-9</t>
   </si>
   <si>
     <t>Kopie</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4032423-0 </t>
   </si>
   <si>
     <t>Sangallo, Antonio da &lt;il Giovane&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4076822-3  </t>
   </si>
   <si>
     <t>Peterskirche (Rom) &lt;Petersdom&gt; &lt;San Pietro in Vaticano&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Palazzo Pandolfini (Florenz)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4223239-9 </t>
   </si>
   <si>
     <t>Linearperspektive &lt;Perspektive&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Heliogravüre</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4024298-5</t>
   </si>
   <si>
     <t>Lichtdruck</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4273606-7  </t>
   </si>
   <si>
     <t>Stempel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4183099-4  </t>
   </si>
   <si>
     <t>Leonardo, da Vinci</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Befestigung &lt;Befestigungsanlage&gt; &lt;Festungsbau&gt;&lt;Wehrbau&gt; &lt;Wehranlage&gt; &lt;Verteidigungsanlage&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4069225-5 </t>
   </si>
   <si>
     <t>Titelblatt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4185576-0  </t>
   </si>
   <si>
     <t>Villa Madama (Rom)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4366804-5</t>
   </si>
   <si>
     <t>Rekonstruktion (dreidimensional)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4150634-0</t>
   </si>
   <si>
     <t>Rekonstruktion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4136102-7 </t>
@@ -1606,125 +1756,114 @@
   </si>
   <si>
     <t>Bezeichnung</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>OGND</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Skizzenbuch</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4055251-2</t>
   </si>
   <si>
     <t>Turm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4203577-6</t>
   </si>
   <si>
     <t>Postkarte</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4046902-5</t>
   </si>
   <si>
     <t>Umgang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4294752-2</t>
   </si>
   <si>
     <t xml:space="preserve">Zeichnung </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vierung</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4121876-0</t>
-  </si>
-  <si>
-    <t>Blatt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4007051-7</t>
-  </si>
-  <si>
-    <t>Gebäude</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4156127-2 </t>
-  </si>
-  <si>
-    <t>Skizze</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4181668-7 </t>
-  </si>
-  <si>
-    <t>Kuppel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4166190-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4645429-9</t>
+  </si>
+  <si>
+    <t>Außenraum &lt;Öffentlicher Raum&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4172385-5 </t>
+  </si>
+  <si>
+    <t>Zusammenfassung</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4224911-9 </t>
+  </si>
+  <si>
+    <t>Poppi (Arezzo)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4199590-9 </t>
   </si>
   <si>
     <t>Gerüst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4206804-6 </t>
   </si>
   <si>
     <t>Fotografie</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4045895-7</t>
   </si>
   <si>
     <t>Dom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4070532-8 </t>
   </si>
   <si>
     <t>Negativ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4347758-6</t>
   </si>
   <si>
     <t>Charenton (Val-de-Marne)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>7532270-5</t>
   </si>
   <si>
     <t>Oppennord, Gilles-Marie</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Busti , Agostino (il Bambaia &lt;Bambaja&gt;)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Chantilly</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4085214-3</t>
@@ -1734,33 +1873,33 @@
   </si>
   <si>
     <t>Musée du Louvre (Paris)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Thesaurus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4185172-9 </t>
   </si>
   <si>
     <t>Todi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4119637-5 </t>
   </si>
   <si>
     <t>Giocondo, Frau</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Peruzzi, Baldassare </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Bindung (Gebundener Zustand)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4273032-6     </t>
@@ -1776,15 +1915,15 @@
   </si>
   <si>
     <t>?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rand</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Monte Rosa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4115207-4</t>
@@ -1794,11 +1933,11 @@
   </si>
   <si>
     <t>&lt;Sant'Adriano Rom&gt; Curia Julia (Rom)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ponte Salaro (Rom) &lt;Ponte Salario (Rom)&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">7692298-4  </t>
@@ -1808,7 +1947,7 @@
   </si>
   <si>
     <t>Speier &lt;Speyer&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4056179-3 </t>
@@ -1824,71 +1963,71 @@
   </si>
   <si>
     <t>Adler, Friedrich &lt;Adler, Johann Heinrich Friedrich&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Alioth, Max</t>
   </si>
   <si>
     <t>Doppel (Seite)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Typografie</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4136341-3</t>
   </si>
   <si>
     <t>Strich &lt;Typografie&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4596644-8</t>
   </si>
   <si>
     <t>Werbeanzeige &lt;Anzeige&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4002377-1 </t>
   </si>
   <si>
     <t xml:space="preserve">Datierung </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4113278-6  </t>
   </si>
   <si>
     <t>Galleria degli Uffizi &lt;Uffizien&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2042762-1</t>
   </si>
   <si>
     <t>Kastell &lt;Besfestigungsanlage&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4136071-0 </t>
   </si>
   <si>
     <t>Bildnis &lt;Porträt&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4006627-7 </t>
   </si>
   <si>
     <t>Studie (Vorstudie)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Kunststil (Stilphase)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ergänzung</t>
@@ -1898,100 +2037,99 @@
   </si>
   <si>
     <t>Korrektur</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4205358-4 </t>
   </si>
   <si>
     <t>Initiale</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4027011-7</t>
   </si>
   <si>
     <t>Probedruck</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4367555-4</t>
   </si>
   <si>
     <t>Verschleiß &lt;Abnützung&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4063153-9 </t>
   </si>
   <si>
     <t>Tabelle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4184303-4 </t>
   </si>
   <si>
     <t>Reproduktion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4115749-7     </t>
   </si>
   <si>
-    <t>Beschriftung</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4298755-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4297336-3 </t>
-  </si>
-  <si>
-    <t>Diagramm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4012044-2</t>
-  </si>
-  <si>
-    <t>Zeitschriftenaufsatz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4125424-7</t>
-  </si>
-  <si>
-    <t>Lichtdruck</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t xml:space="preserve">Hugenotten </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4026112-8     </t>
+  </si>
+  <si>
+    <t>Kirchbau</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4073436-5</t>
+  </si>
+  <si>
+    <t>Sakralbau</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4178936-2 </t>
+  </si>
+  <si>
+    <t>Palazzo Farnese (Piacenza)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4414853-7  </t>
   </si>
   <si>
     <t>Bleistift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Gouache</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Aquarell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Tinte</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Lavierung</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4552376-9</t>
   </si>
   <si>
     <t>Saint Nicolas (Troyes) &lt;Saint-Nicolas Troyes&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">7550317-7  </t>
@@ -2010,22 +2148,22 @@
   </si>
   <si>
     <t>Adelphikirche Neuwiller-lès-Saverne &lt;Neuweiler&gt; &lt;Ehemalige Kollegiatskirche Sankt Adelphe (Neuwiller-lès-Saverne)&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Neuweiler (Frankreich) &lt;Neuwiller-lès-Saverne&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">16056438-4  </t>
   </si>
   <si>
     <t>Zisterzienserkloster (Lehnin) &lt;Zisterzienserkloster (Kloster Lehnin)&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Brunelleschi, Filippo &lt;Brunelleschi, Philippe&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Santo Stefano in Pane (Florenz)</t>
@@ -2035,18 +2173,18 @@
   </si>
   <si>
     <t>Badia a Ripoli &lt;Florenz- Badia a Ripoli&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4208495-7  </t>
   </si>
   <si>
     <t>Limburg, Haardt &lt;Limburg (an der Haart)&gt; &lt;Limburg (an der Haardt)&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Eußerthal &lt;Eusserthal&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4015787-8 </t>
@@ -2062,7 +2200,7 @@
   </si>
   <si>
     <t>Trifels Annweiler &lt;Burg&gt; (Trifels)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Weißenburg (Elsass)</t>
@@ -2081,14 +2219,14 @@
   </si>
   <si>
     <t>Straßburg &lt;Straßbourg&gt; &lt;Strasburg&gt; &lt;Strassburg&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4057878-1</t>
   </si>
   <si>
     <t>Münster Straßburg (Straßburg) &lt;Cathédrale Notre-Dame (Straßburg)&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4116639-5</t>
@@ -2098,111 +2236,71 @@
   </si>
   <si>
     <t>Kloster Eschau &lt;Sankt Trophimus&gt; &lt;Abtei Sankt Sophie (Unterelsass)&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4362043-7 </t>
   </si>
   <si>
     <t>Eschau (Unterelsass)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Neuweiler &lt;Neuweiler (Calw)&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4459469-0 </t>
   </si>
   <si>
     <t>Zentralperspektive &lt;Perspektive&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4045301-7 </t>
   </si>
   <si>
     <t>Verzeichnis</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4188171-0 </t>
   </si>
   <si>
     <t>Vorlesung</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Akademie der Künste (Berlin)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Benedetto, da Maiano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Raffaello, Sanzio &lt;Raffaelo&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Dom Florenz (Florenz) &lt;Santa Maria del Fiore (Florenz)&gt; &lt;Duomo Florenz&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Innenraum &lt;Motiv&gt;</t>
-  </si>
-  <si>
-    <t>4645429-9</t>
-  </si>
-  <si>
-    <t>Außenraum &lt;Öffentlicher Raum&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4172385-5 </t>
-  </si>
-  <si>
-    <t>Zusammenfassung</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4224911-9 </t>
-  </si>
-  <si>
-    <t>Poppi (Arezzo)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4199590-9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hugenotten </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4026112-8     </t>
-  </si>
-  <si>
-    <t>Kirchbau</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4073436-5</t>
-  </si>
-  <si>
-    <t>Sakralbau</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4178936-2 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -2251,16 +2349,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2596,10 +2695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:Z230"/>
+  <dimension ref="A2:Z232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S55" workbookViewId="0">
-      <selection activeCell="Z72" sqref="Z72"/>
+    <sheetView tabSelected="1" topLeftCell="O43" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2613,41 +2712,41 @@
   <sheetData>
     <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="B4" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="I4" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="J4" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="Y4" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="Z4" s="2">
         <v>119491710</v>
@@ -2655,77 +2754,77 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="B5" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="I5" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="J5" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="Q5" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="R5" t="s">
-        <v>527</v>
+        <v>568</v>
       </c>
       <c r="Y5" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="I6" t="s">
-        <v>479</v>
+        <v>350</v>
       </c>
       <c r="J6" t="s">
-        <v>480</v>
+        <v>351</v>
       </c>
       <c r="Q6" t="s">
-        <v>598</v>
+        <v>639</v>
       </c>
       <c r="R6" t="s">
-        <v>595</v>
+        <v>636</v>
       </c>
       <c r="Y6" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
+        <v>353</v>
       </c>
       <c r="I7" t="s">
-        <v>483</v>
+        <v>354</v>
       </c>
       <c r="J7" t="s">
-        <v>484</v>
+        <v>355</v>
       </c>
       <c r="Q7" t="s">
-        <v>601</v>
+        <v>642</v>
       </c>
       <c r="R7">
         <v>1046875264</v>
       </c>
       <c r="Y7" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="Z7" s="2">
         <v>118640445</v>
@@ -2733,25 +2832,25 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>485</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
-        <v>486</v>
+        <v>357</v>
       </c>
       <c r="I8" t="s">
-        <v>487</v>
+        <v>358</v>
       </c>
       <c r="J8" t="s">
-        <v>488</v>
+        <v>359</v>
       </c>
       <c r="Q8" t="s">
-        <v>606</v>
+        <v>647</v>
       </c>
       <c r="R8" t="s">
-        <v>607</v>
+        <v>648</v>
       </c>
       <c r="Y8" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="Z8" s="2">
         <v>121166341</v>
@@ -2759,25 +2858,25 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="I9" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="J9" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="Q9" t="s">
-        <v>609</v>
+        <v>650</v>
       </c>
       <c r="R9" t="s">
-        <v>608</v>
+        <v>649</v>
       </c>
       <c r="Y9" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="Z9" s="2">
         <v>118982397</v>
@@ -2785,25 +2884,25 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="B10" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="I10" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
       <c r="J10" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="Q10" t="s">
-        <v>583</v>
+        <v>624</v>
       </c>
       <c r="R10" t="s">
-        <v>582</v>
+        <v>623</v>
       </c>
       <c r="Y10" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="Z10" s="2">
         <v>118958437</v>
@@ -2811,25 +2910,25 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>495</v>
+        <v>536</v>
       </c>
       <c r="B11" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="I11" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="J11" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="Q11" t="s">
-        <v>586</v>
+        <v>627</v>
       </c>
       <c r="R11" t="s">
-        <v>585</v>
+        <v>626</v>
       </c>
       <c r="Y11" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
       <c r="Z11" s="2">
         <v>118740091</v>
@@ -2837,25 +2936,25 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="I12" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="Q12" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="R12" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="Z12" s="2">
         <v>118794426</v>
@@ -2863,25 +2962,25 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="I13" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="J13" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="Q13" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="R13" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="Y13" t="s">
-        <v>620</v>
+        <v>661</v>
       </c>
       <c r="Z13" s="2">
         <v>118841270</v>
@@ -2889,25 +2988,25 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="I14" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="J14" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="Q14" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="R14" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="Y14" t="s">
-        <v>621</v>
+        <v>662</v>
       </c>
       <c r="Z14" s="2">
         <v>118597787</v>
@@ -2915,25 +3014,25 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="J15" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="Q15" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="R15" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="Y15" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="Z15" s="2">
         <v>122706196</v>
@@ -2941,51 +3040,51 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="B16" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="Q16" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="R16" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="Y16" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="I17" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="J17" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="Q17" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="R17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="Y17" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="Z17" s="2">
         <v>118770039</v>
@@ -2993,77 +3092,77 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="B18" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="I18" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="J18" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="Q18" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="R18" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="I19" t="s">
-        <v>633</v>
+        <v>606</v>
       </c>
       <c r="J19" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="Q19" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="R19" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="Y19" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="I20" t="s">
-        <v>543</v>
+        <v>584</v>
       </c>
       <c r="J20" t="s">
-        <v>544</v>
+        <v>585</v>
       </c>
       <c r="Q20" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="R20" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="Y20" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="Z20" s="2">
         <v>118799770</v>
@@ -3071,25 +3170,25 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="I21" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="J21" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="Q21" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="Y21" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="Z21" s="2">
         <v>118796224</v>
@@ -3097,25 +3196,25 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="I22" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="J22" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="Q22" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="Y22" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="Z22" s="2">
         <v>188445005</v>
@@ -3123,25 +3222,25 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="B23" t="s">
-        <v>534</v>
+        <v>575</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="Q23" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="Y23" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="Z23" s="2">
         <v>118714090</v>
@@ -3149,25 +3248,25 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="Q24" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="Y24" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="Z24" s="2">
         <v>118783114</v>
@@ -3175,19 +3274,19 @@
     </row>
     <row r="25" spans="1:26">
       <c r="I25" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="Q25" t="s">
-        <v>619</v>
+        <v>660</v>
       </c>
       <c r="R25" s="2">
         <v>1073068889</v>
       </c>
       <c r="Y25" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Z25" s="2">
         <v>118534483</v>
@@ -3195,13 +3294,13 @@
     </row>
     <row r="26" spans="1:26">
       <c r="Q26" t="s">
-        <v>541</v>
+        <v>582</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Y26" t="s">
-        <v>530</v>
+        <v>571</v>
       </c>
       <c r="Z26" s="2">
         <v>118960407</v>
@@ -3209,13 +3308,13 @@
     </row>
     <row r="27" spans="1:26">
       <c r="Q27" t="s">
-        <v>622</v>
+        <v>663</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="Y27" t="s">
-        <v>531</v>
+        <v>572</v>
       </c>
       <c r="Z27" s="2">
         <v>24799957</v>
@@ -3223,13 +3322,13 @@
     </row>
     <row r="28" spans="1:26">
       <c r="Q28" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="Y28" t="s">
-        <v>587</v>
+        <v>628</v>
       </c>
       <c r="Z28" s="2">
         <v>118516086</v>
@@ -3237,13 +3336,13 @@
     </row>
     <row r="29" spans="1:26">
       <c r="Q29" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="Y29" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="Z29" s="2">
         <v>118781197</v>
@@ -3251,13 +3350,13 @@
     </row>
     <row r="30" spans="1:26">
       <c r="Q30" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="Y30" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="Z30" s="2">
         <v>1089927940</v>
@@ -3265,69 +3364,69 @@
     </row>
     <row r="31" spans="1:26">
       <c r="Q31" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="R31" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="Y31" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:26">
       <c r="Q32" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="R32" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="Y32" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:26">
       <c r="Q33" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="R33" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="Y33" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:26">
       <c r="Q34" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="R34" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="Y34" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:26">
       <c r="Q35" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="R35" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="Y35" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="Z35" s="2">
         <v>1022165429</v>
@@ -3335,16 +3434,16 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="1" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="Q36" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="R36" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="Y36" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="Z36" s="2">
         <v>118508679</v>
@@ -3352,19 +3451,19 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="Q37" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="R37" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="Y37" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="Z37" s="2">
         <v>102443890</v>
@@ -3372,19 +3471,19 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>399</v>
+        <v>261</v>
       </c>
       <c r="B38" t="s">
-        <v>400</v>
+        <v>262</v>
       </c>
       <c r="Q38" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="R38" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="Y38" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="Z38" s="2">
         <v>118849565</v>
@@ -3392,19 +3491,19 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>404</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s">
-        <v>405</v>
+        <v>267</v>
       </c>
       <c r="Q39" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="R39" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="Y39" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="Z39" s="2">
         <v>121940950</v>
@@ -3412,19 +3511,19 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="B40" t="s">
-        <v>405</v>
+        <v>267</v>
       </c>
       <c r="Q40" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="R40" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="Y40" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Z40" s="2">
         <v>118804715</v>
@@ -3432,19 +3531,19 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="B41" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="Q41" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="R41" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="Y41" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="Z41" s="2">
         <v>133612872</v>
@@ -3452,19 +3551,19 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="B42" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="Q42" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="Y42" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="Z42" s="2">
         <v>118608770</v>
@@ -3472,59 +3571,59 @@
     </row>
     <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
       <c r="B43" t="s">
-        <v>624</v>
+        <v>523</v>
       </c>
       <c r="Q43" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="R43" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>625</v>
+        <v>524</v>
       </c>
       <c r="B44" t="s">
-        <v>626</v>
+        <v>525</v>
       </c>
       <c r="Q44" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="R44" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="Y44" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="B45" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="Q45" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="R45" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="Z45" s="2">
         <v>130123404</v>
@@ -3532,19 +3631,19 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="B46" t="s">
-        <v>615</v>
+        <v>656</v>
       </c>
       <c r="Q46" t="s">
-        <v>577</v>
+        <v>618</v>
       </c>
       <c r="R46" t="s">
-        <v>578</v>
+        <v>619</v>
       </c>
       <c r="Y46" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="Z46" s="2">
         <v>118710230</v>
@@ -3552,13 +3651,19 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>614</v>
+        <v>655</v>
       </c>
       <c r="B47" t="s">
-        <v>615</v>
+        <v>656</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>610</v>
+      </c>
+      <c r="R47" t="s">
+        <v>611</v>
       </c>
       <c r="Y47" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="Z47" s="2">
         <v>118686623</v>
@@ -3566,13 +3671,19 @@
     </row>
     <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>280</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>77</v>
+      </c>
+      <c r="R48" t="s">
+        <v>12</v>
       </c>
       <c r="Y48" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="Z48" s="2">
         <v>118532634</v>
@@ -3580,13 +3691,13 @@
     </row>
     <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="Y49" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="Z49" s="2">
         <v>118546597</v>
@@ -3594,144 +3705,174 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>145</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>147</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>149</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>143725394</v>
       </c>
     </row>
     <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>151</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>18533010</v>
       </c>
     </row>
     <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>153</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>119517752</v>
       </c>
     </row>
     <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="B56" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
       <c r="B57" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="B58" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="I58" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="J58" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="B59" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="I59" t="s">
-        <v>401</v>
+        <v>263</v>
       </c>
       <c r="J59" t="s">
-        <v>402</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="B60" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="I60" t="s">
-        <v>406</v>
+        <v>268</v>
       </c>
       <c r="J60" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="I61" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="J61" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
     </row>
     <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="B62" t="s">
-        <v>546</v>
+        <v>587</v>
       </c>
       <c r="I62" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="J62" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:26">
       <c r="A63" t="s">
-        <v>547</v>
+        <v>588</v>
       </c>
       <c r="B63" s="2">
         <v>1041355866</v>
@@ -3739,649 +3880,712 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>548</v>
+        <v>589</v>
       </c>
       <c r="B64" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>549</v>
+        <v>590</v>
       </c>
       <c r="B65" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
     </row>
     <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>551</v>
+        <v>592</v>
       </c>
       <c r="B66" t="s">
-        <v>552</v>
+        <v>593</v>
       </c>
     </row>
     <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>553</v>
+        <v>594</v>
       </c>
       <c r="B67" t="s">
-        <v>554</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>555</v>
+        <v>596</v>
       </c>
       <c r="B68" t="s">
-        <v>556</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>559</v>
+        <v>600</v>
       </c>
       <c r="B69" t="s">
-        <v>560</v>
+        <v>601</v>
       </c>
     </row>
     <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>561</v>
+        <v>602</v>
       </c>
       <c r="B70" t="s">
-        <v>562</v>
+        <v>603</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>563</v>
+        <v>443</v>
       </c>
       <c r="B71" t="s">
-        <v>564</v>
+        <v>444</v>
       </c>
       <c r="I71" t="s">
-        <v>570</v>
+        <v>450</v>
       </c>
       <c r="J71" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="Q71" t="s">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="R71" t="s">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="Y71" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="Z71" s="2" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
     </row>
     <row r="72" spans="1:26">
       <c r="A72" t="s">
+        <v>573</v>
+      </c>
+      <c r="B72" t="s">
+        <v>445</v>
+      </c>
+      <c r="I72" t="s">
         <v>532</v>
       </c>
-      <c r="B72" t="s">
-        <v>565</v>
-      </c>
-      <c r="I72" t="s">
-        <v>491</v>
-      </c>
       <c r="J72" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="Q72" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
       <c r="R72" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="Y72" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="Z72" s="2" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>566</v>
+        <v>446</v>
       </c>
       <c r="B73" t="s">
-        <v>567</v>
+        <v>447</v>
       </c>
       <c r="I73" t="s">
-        <v>571</v>
+        <v>612</v>
       </c>
       <c r="J73" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="Q73" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="R73" t="s">
-        <v>361</v>
+        <v>406</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z73" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>568</v>
+        <v>448</v>
       </c>
       <c r="B74" t="s">
-        <v>569</v>
+        <v>449</v>
       </c>
       <c r="I74" t="s">
-        <v>572</v>
+        <v>613</v>
       </c>
       <c r="J74" t="s">
-        <v>420</v>
+        <v>464</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>1072942550</v>
       </c>
     </row>
     <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="I75" t="s">
-        <v>573</v>
+        <v>614</v>
       </c>
       <c r="J75" t="s">
-        <v>80</v>
+        <v>121</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>1088721869</v>
       </c>
     </row>
     <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="I76" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="J76" t="s">
-        <v>238</v>
+        <v>282</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>1088090885</v>
       </c>
     </row>
     <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="I77" t="s">
-        <v>574</v>
+        <v>615</v>
       </c>
       <c r="J77" t="s">
-        <v>239</v>
+        <v>283</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z77" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="B78" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="I78" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="J78" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="B79" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="I79" t="s">
-        <v>575</v>
+        <v>616</v>
       </c>
       <c r="J79" t="s">
-        <v>576</v>
+        <v>617</v>
       </c>
     </row>
     <row r="80" spans="1:26">
       <c r="A80" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="B80" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="I80" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="J80" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" t="s">
-        <v>627</v>
+        <v>526</v>
       </c>
       <c r="B81" t="s">
-        <v>628</v>
+        <v>527</v>
       </c>
       <c r="I81" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="J81" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" t="s">
-        <v>616</v>
+        <v>657</v>
       </c>
       <c r="B82" t="s">
-        <v>617</v>
+        <v>658</v>
       </c>
       <c r="I82" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="J82" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="Q82" t="s">
-        <v>398</v>
+        <v>260</v>
       </c>
       <c r="R82" t="s">
-        <v>513</v>
+        <v>554</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" t="s">
-        <v>618</v>
+        <v>659</v>
       </c>
       <c r="B83" s="2">
         <v>209509619</v>
       </c>
       <c r="I83" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="J83" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="Q83" t="s">
-        <v>403</v>
+        <v>265</v>
       </c>
       <c r="R83" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="B84" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="I84" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="J84" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="Q84" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="R84" t="s">
-        <v>514</v>
+        <v>555</v>
       </c>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" t="s">
-        <v>537</v>
+        <v>578</v>
       </c>
       <c r="B85" t="s">
-        <v>538</v>
+        <v>579</v>
       </c>
       <c r="I85" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="J85" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="Q85" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="R85" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" t="s">
-        <v>539</v>
+        <v>580</v>
       </c>
       <c r="B86" t="s">
-        <v>540</v>
+        <v>581</v>
       </c>
       <c r="I86" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="J86" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="Q86" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="R86" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="I87" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="J87" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="B88" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="I88" t="s">
-        <v>535</v>
+        <v>576</v>
       </c>
       <c r="J88" t="s">
-        <v>536</v>
+        <v>577</v>
       </c>
     </row>
     <row r="89" spans="1:18">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="B89" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="I89" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="J89" t="s">
-        <v>133</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="I91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="I92" t="s">
+        <v>30</v>
+      </c>
+      <c r="J92" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="1" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105" spans="1:18">
       <c r="A105" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="B105" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="I105" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="J105" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="Q105" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="R105" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="5" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="I106" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="J106" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="Q106" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="R106" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="5" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="I107" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="J107" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="Q107" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="R107" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="5" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="I108" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="J108" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="Q108" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="R108" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="3" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="I109" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
       <c r="J109" t="s">
-        <v>484</v>
+        <v>355</v>
       </c>
       <c r="Q109" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="R109" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:18">
       <c r="I110" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="J110" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
     </row>
     <row r="111" spans="1:18">
       <c r="I111" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="J111" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
     </row>
     <row r="112" spans="1:18">
       <c r="I112" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="J112" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="I113" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="J113" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="I115" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="J115" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" s="1" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>81</v>
+      </c>
+      <c r="Q127" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="B128" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="I128" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="J128" t="s">
-        <v>41</v>
+        <v>82</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>19</v>
+      </c>
+      <c r="R128" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="B129" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="I129" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="B130" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="B131" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="B132" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="B133" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="B134" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="B135" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="B136" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="B137" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="B138" s="2">
         <v>1049716183</v>
@@ -4389,141 +4593,141 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="B139" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="B140" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>629</v>
+        <v>528</v>
       </c>
       <c r="B141" t="s">
-        <v>630</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>497</v>
+        <v>538</v>
       </c>
       <c r="B142" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="B143" t="s">
-        <v>508</v>
+        <v>549</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="B144" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="B145" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="B146" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="4" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="5" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="4" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="5" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="5" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="5" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="5" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="B154" s="4"/>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="5" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="5" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="B156" s="4">
         <v>1077172354</v>
@@ -4531,265 +4735,265 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="4" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="5" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="5" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="5" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="5" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="5" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="5" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="5" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="5" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="5" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="5" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="5" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="5" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="5" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="5" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="5" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="4" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="4" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="B174" s="4"/>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="5" t="s">
-        <v>306</v>
+        <v>175</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>307</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="5" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="4" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>308</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="5" t="s">
-        <v>309</v>
+        <v>178</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>310</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="5" t="s">
-        <v>311</v>
+        <v>180</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>312</v>
+        <v>181</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="5" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>314</v>
+        <v>183</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="B181" s="4"/>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="5" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="4" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="B183" s="4"/>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="5" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="5" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="6" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="B186" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="6" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="B187" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="6" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="B188" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="B189" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="B190" s="2">
         <v>1051236975</v>
@@ -4797,127 +5001,127 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="B191" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="B192" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="B193" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="B194" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="B195" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="B196" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="B197" t="s">
-        <v>218</v>
+        <v>105</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="B198" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="B199" t="s">
-        <v>222</v>
+        <v>109</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="B200" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="B201" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="B202" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B203" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="B204" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>518</v>
+        <v>559</v>
       </c>
       <c r="B205" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="B206" s="2">
         <v>1028218125</v>
@@ -4925,177 +5129,188 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="B207" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>592</v>
+        <v>633</v>
       </c>
       <c r="B208" t="s">
-        <v>529</v>
+        <v>570</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>593</v>
+        <v>634</v>
       </c>
       <c r="B209" t="s">
-        <v>594</v>
+        <v>635</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>596</v>
+        <v>637</v>
       </c>
       <c r="B210" t="s">
-        <v>597</v>
+        <v>638</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>599</v>
+        <v>640</v>
       </c>
       <c r="B211" t="s">
-        <v>600</v>
+        <v>641</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>602</v>
+        <v>643</v>
       </c>
       <c r="B212" t="s">
-        <v>603</v>
+        <v>644</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>604</v>
+        <v>645</v>
       </c>
       <c r="B213" t="s">
-        <v>605</v>
+        <v>646</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>611</v>
+        <v>652</v>
       </c>
       <c r="B214" t="s">
-        <v>610</v>
+        <v>651</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>612</v>
+        <v>653</v>
       </c>
       <c r="B215" t="s">
-        <v>613</v>
+        <v>654</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>584</v>
+        <v>625</v>
       </c>
       <c r="B216" t="s">
-        <v>581</v>
+        <v>622</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>588</v>
+        <v>629</v>
       </c>
       <c r="B217" t="s">
-        <v>589</v>
+        <v>630</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>590</v>
+        <v>631</v>
       </c>
       <c r="B218" t="s">
-        <v>591</v>
+        <v>632</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B225" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B226" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B228" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>579</v>
+        <v>620</v>
       </c>
       <c r="B230" t="s">
-        <v>580</v>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
